--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_2/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_2/out_of_sample/additive/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.25</v>
+        <v>-0.133</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.82</v>
+        <v>28.309</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.468</v>
+        <v>-0.047</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.53</v>
+        <v>27.396</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.452</v>
+        <v>-0.026</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.308</v>
+        <v>27.778</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7.014819750123159</v>
+        <v>28.37213811497349</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>18.74807482471566</v>
+        <v>28.37213813774467</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>22.36547997800725</v>
+        <v>28.37213814454848</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5.144481546495676</v>
+        <v>28.37213811729253</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>18.11196634960148</v>
+        <v>28.37213814246702</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>22.11154135611531</v>
+        <v>28.37213814998891</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>11.26364569898811</v>
+        <v>28.37213812439464</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>22.60076001056398</v>
+        <v>28.3721381464271</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>26.09809085051018</v>
+        <v>28.37213815301018</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>18.88411791135248</v>
+        <v>28.37213814195719</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>30.21632584862872</v>
+        <v>28.37213816638165</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>34.23612096924796</v>
+        <v>28.37213817355859</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12.12052322246829</v>
+        <v>28.37213813798278</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>30.00401762967736</v>
+        <v>28.37213817263533</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>35.51791762648688</v>
+        <v>28.37213818298916</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>9.35351165048149</v>
+        <v>28.37213815709853</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>22.26826181201495</v>
+        <v>28.37213818144274</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>26.21921561863338</v>
+        <v>28.37213818871909</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6.797590780623786</v>
+        <v>28.37213816064653</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>21.07120524441254</v>
+        <v>28.37213818756007</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>25.43948486578972</v>
+        <v>28.37213819560438</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>13.68070268824103</v>
+        <v>28.37213816912719</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>26.1601404725984</v>
+        <v>28.37213819268164</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>11.11772051876085</v>
+        <v>28.3721381345949</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>23.11197747242147</v>
+        <v>28.37213815779316</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>26.762175899153</v>
+        <v>28.37213816452629</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>9.814814992796196</v>
+        <v>28.37213813844403</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>23.0707596375785</v>
+        <v>28.37213816409068</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>27.10656793593104</v>
+        <v>28.37213817153443</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>16.08110536121097</v>
+        <v>28.37213814590406</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>27.67046783748693</v>
+        <v>28.37213816834974</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>31.19948145226366</v>
+        <v>28.37213817486444</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>23.88534960845573</v>
+        <v>28.37213816361493</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>35.46822543489148</v>
+        <v>28.37213818842179</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>39.53569553512504</v>
+        <v>28.37213819553766</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>16.9027816615835</v>
+        <v>28.37213815887663</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>35.18397740285329</v>
+        <v>28.3721381941791</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>40.7478443035266</v>
+        <v>28.37213820442538</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>13.89625100997329</v>
+        <v>28.37213817837091</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>27.09021068669266</v>
+        <v>28.37213820316817</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>31.07856415985051</v>
+        <v>28.37213821037157</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>11.94508852873696</v>
+        <v>28.37213818356553</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>26.52728875562401</v>
+        <v>28.37213821097993</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>30.93689267168939</v>
+        <v>28.37213821894358</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>18.99119948402833</v>
+        <v>28.37213819242583</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>31.74048603378586</v>
+        <v>28.37213821641864</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>12.55441722518058</v>
+        <v>28.37213813861017</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>24.51157326423809</v>
+        <v>28.37213816170967</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>28.12932489203124</v>
+        <v>28.37213816838524</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>11.39710814936429</v>
+        <v>28.37213814276868</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>24.61204674005002</v>
+        <v>28.37213816830614</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>28.61197762460554</v>
+        <v>28.37213817568626</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>17.66202958351121</v>
+        <v>28.37213815022627</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>29.2155550513052</v>
+        <v>28.3721381725764</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>32.71319334054044</v>
+        <v>28.3721381790354</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>25.45324508677119</v>
+        <v>28.37213816780886</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>37.00115110395978</v>
+        <v>28.37213819249213</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>41.03524956793039</v>
+        <v>28.37213819955235</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>18.46686235631313</v>
+        <v>28.37213816295787</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>36.6914769465336</v>
+        <v>28.37213819811005</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>42.20589163334023</v>
+        <v>28.37213820826874</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>15.42217837079726</v>
+        <v>28.372138182318</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>28.57342831319415</v>
+        <v>28.37213820700911</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>32.52721941110222</v>
+        <v>28.37213821415134</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>13.6302661078927</v>
+        <v>28.37213818783111</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>28.16525881009723</v>
+        <v>28.37213821512816</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>32.53664678495451</v>
+        <v>28.37213822302418</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>20.67325468332467</v>
+        <v>28.37213819668155</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>33.38128003516919</v>
+        <v>28.37213822057165</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>12.35091942753531</v>
+        <v>28.37213811959</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>24.40897809180297</v>
+        <v>28.37213814263851</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>28.04110399132635</v>
+        <v>28.37213814948306</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>10.79124083344727</v>
+        <v>28.37213812242886</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>24.11766717219323</v>
+        <v>28.37213814790995</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>28.13352070937848</v>
+        <v>28.37213815547689</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>17.19106105333154</v>
+        <v>28.37213812966401</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>28.84201220090663</v>
+        <v>28.3721381519648</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>32.35355727676946</v>
+        <v>28.37213815858731</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>25.06835673912223</v>
+        <v>28.37213814736499</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>36.71965663192686</v>
+        <v>28.37213817206115</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>40.76051545536086</v>
+        <v>28.37213817928787</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>17.99200094399038</v>
+        <v>28.37213814314315</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>36.37047356731964</v>
+        <v>28.37213817821772</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>41.90685635552845</v>
+        <v>28.37213818863357</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>15.06783207438015</v>
+        <v>28.37213816243703</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>28.33772755614094</v>
+        <v>28.372138187077</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>32.30836734078105</v>
+        <v>28.37213819439754</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>12.8365000788243</v>
+        <v>28.37213816654457</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>27.50259272049526</v>
+        <v>28.37213819378508</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>31.89264069047134</v>
+        <v>28.37213820187824</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>20.02675192739025</v>
+        <v>28.37213817517319</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>32.84935606244225</v>
+        <v>28.37213819901381</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.97977189798875</v>
+        <v>28.37213819972194</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>22.34769164361392</v>
+        <v>28.3721381871977</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>34.97161448690686</v>
+        <v>28.37213821337278</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>39.38689261022296</v>
+        <v>28.37213822104109</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>15.3288755706142</v>
+        <v>28.37213818151302</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>35.0122536504377</v>
+        <v>28.37213821855935</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>41.03482200217154</v>
+        <v>28.3721382296323</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>17.68702990342659</v>
+        <v>28.37213820904872</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>30.7563998840264</v>
+        <v>28.37213823262061</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>34.7498678880989</v>
+        <v>28.37213823964081</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>16.01467257381562</v>
+        <v>28.37213821465307</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>30.45941337000885</v>
+        <v>28.37213824071277</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>34.87463423241452</v>
+        <v>28.37213824847389</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>23.30261529667698</v>
+        <v>28.37213822370387</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>35.93195631865451</v>
+        <v>28.37213824651105</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>39.79259737792273</v>
+        <v>28.37213825330351</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>32.54718054442747</v>
+        <v>28.37213824078725</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>45.37667801443959</v>
+        <v>28.37213826608238</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>49.88478045798468</v>
+        <v>28.37213827342701</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>25.52172142851696</v>
+        <v>28.37213823366808</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>45.44042980612825</v>
+        <v>28.37213826953911</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>51.52770015310601</v>
+        <v>28.37213828022226</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>35.59625167685247</v>
+        <v>28.37213822338835</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>27.85483487937394</v>
+        <v>28.37213821062478</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>40.74654855743133</v>
+        <v>28.37213823720204</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>45.21564528947491</v>
+        <v>28.37213824480665</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>20.60488557394558</v>
+        <v>28.37213820411837</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>40.71370618549242</v>
+        <v>28.37213824185414</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>46.79326330868312</v>
+        <v>28.37213825281607</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>22.57935259527467</v>
+        <v>28.37213823016236</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>35.9226376211237</v>
+        <v>28.37213825417141</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>39.95046085071429</v>
+        <v>28.3721382611159</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>21.53062522301722</v>
+        <v>28.37213823738425</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>36.27810317385789</v>
+        <v>28.37213826392725</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>40.73128577842645</v>
+        <v>28.37213827160466</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>28.98772889280165</v>
+        <v>28.37213824680419</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>41.88180353964965</v>
+        <v>28.37213827003436</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>45.77563936014897</v>
+        <v>28.37213827675355</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>38.42933502416573</v>
+        <v>28.37213826399492</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>51.52090302647349</v>
+        <v>28.37213828967725</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>56.07905977012913</v>
+        <v>28.37213829695348</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>31.16689484487726</v>
+        <v>28.37213825607297</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>51.5029834480325</v>
+        <v>28.37213829260927</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>57.6426036303227</v>
+        <v>28.37213830317718</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>37.2036260431204</v>
+        <v>28.37213822748218</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>29.51957270757496</v>
+        <v>28.37213821474315</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>42.36972249843137</v>
+        <v>28.37213824118673</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>46.80299795026183</v>
+        <v>28.3721382487319</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>22.26507256231071</v>
+        <v>28.3721382081278</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>42.30876769177095</v>
+        <v>28.37213824570203</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>48.33564702006731</v>
+        <v>28.37213825657087</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>24.06123296563076</v>
+        <v>28.37213823371428</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>37.35939391448251</v>
+        <v>28.37213825762243</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>41.35171812668137</v>
+        <v>28.37213826450588</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>23.1677312201466</v>
+        <v>28.3721382412319</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>37.86533177436371</v>
+        <v>28.37213826766334</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>42.27926380574988</v>
+        <v>28.37213827527329</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>30.6183004918486</v>
+        <v>28.37213825063651</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>43.46877693445495</v>
+        <v>28.37213827376905</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>47.32828901163234</v>
+        <v>28.3721382804292</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>40.03799428009328</v>
+        <v>28.37213826769328</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>53.08497713792022</v>
+        <v>28.37213829324844</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>57.6055261559625</v>
+        <v>28.37213830046499</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>32.77196020660841</v>
+        <v>28.37213825967402</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>53.03924732499841</v>
+        <v>28.37213829605676</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>59.12476260704348</v>
+        <v>28.37213830653181</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>36.68799897923395</v>
+        <v>28.37213820609686</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>28.9821637801414</v>
+        <v>28.37213819337792</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>41.95781986259108</v>
+        <v>28.3721382198422</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>46.39976300392762</v>
+        <v>28.37213822756383</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>21.6375907407865</v>
+        <v>28.37213818741859</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>41.86216568632079</v>
+        <v>28.372138224915</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>47.91479499320592</v>
+        <v>28.37213823605519</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>23.33358208869874</v>
+        <v>28.37213821477938</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>36.758480618844</v>
+        <v>28.37213823864018</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>40.77146951391002</v>
+        <v>28.37213824570018</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>22.00460512943736</v>
+        <v>28.37213822094845</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>36.8422521707364</v>
+        <v>28.37213824732755</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>41.27905855725481</v>
+        <v>28.37213825513268</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>29.600527937472</v>
+        <v>28.37213823015016</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>42.57341411025924</v>
+        <v>28.37213825323688</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>46.45290671967031</v>
+        <v>28.37213826006785</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>39.14542761382761</v>
+        <v>28.37213824735428</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>52.32725942743862</v>
+        <v>28.37213827293152</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>56.86132910947105</v>
+        <v>28.37213828032336</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>31.80628685817179</v>
+        <v>28.37213823995062</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>52.26677037528292</v>
+        <v>28.3721382762613</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>58.38384805869054</v>
+        <v>28.37213828700502</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>7.48818580106353</v>
+        <v>28.37213812015726</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>19.17105217063136</v>
+        <v>28.37213814285035</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>22.85297320303619</v>
+        <v>28.37213814973197</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>5.6836028393781</v>
+        <v>28.372138122951</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>18.59538880905152</v>
+        <v>28.37213814803915</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>22.6661986684562</v>
+        <v>28.37213815564707</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>11.84593540851146</v>
+        <v>28.3721381301115</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>23.13426507690387</v>
+        <v>28.37213815206841</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>26.69393465265701</v>
+        <v>28.37213815872678</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>19.58718486458356</v>
+        <v>28.37213814773445</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>30.87230438228229</v>
+        <v>28.37213817212576</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>34.96503965785157</v>
+        <v>28.37213817939849</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>12.92506194909989</v>
+        <v>28.37213814376146</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>30.73192865543142</v>
+        <v>28.37213817829517</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>36.34393426495174</v>
+        <v>28.37213818876743</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>9.436184082848936</v>
+        <v>28.37213816246186</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>22.30025418451508</v>
+        <v>28.37213818672518</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>26.32144642911185</v>
+        <v>28.37213819408141</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>6.921992986139824</v>
+        <v>28.37213816648374</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>21.13959565783285</v>
+        <v>28.37213819330785</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>25.58542337615851</v>
+        <v>28.37213820144047</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>13.83356244296833</v>
+        <v>28.37213817500771</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>26.26394228195635</v>
+        <v>28.3721381984839</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>11.72741620612132</v>
+        <v>28.3721381402521</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>23.67127269190477</v>
+        <v>28.37213816337164</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>27.3882444971862</v>
+        <v>28.3721381701833</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>10.50086502175295</v>
+        <v>28.37213814460164</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>23.70109803906799</v>
+        <v>28.37213817016126</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>27.81063449111817</v>
+        <v>28.37213817769183</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>16.81419991466152</v>
+        <v>28.37213815213335</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>28.35476490977544</v>
+        <v>28.37213817450287</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>31.94829835792994</v>
+        <v>28.37213818109355</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>24.74152388105055</v>
+        <v>28.37213816991348</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>36.27761340751326</v>
+        <v>28.3721381946857</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>40.42057210007654</v>
+        <v>28.37213820189711</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>17.85762354277056</v>
+        <v>28.37213816516456</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>36.06217761210144</v>
+        <v>28.37213820034724</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>41.72758602337741</v>
+        <v>28.37213821071303</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>14.11811500422835</v>
+        <v>28.37213818421959</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>27.26143464976263</v>
+        <v>28.37213820893521</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>31.32241315751986</v>
+        <v>28.37213821621945</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>12.21914898030907</v>
+        <v>28.37213818991415</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>26.74538193929566</v>
+        <v>28.37213821723829</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>31.23516990351327</v>
+        <v>28.37213822529133</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>19.29771767568394</v>
+        <v>28.37213819883139</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>31.99798351968117</v>
+        <v>28.3721382227452</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>13.19498513008219</v>
+        <v>28.37213814430676</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>25.10208283042302</v>
+        <v>28.37213816732854</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>28.78636363574305</v>
+        <v>28.37213817408262</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>12.11591962967173</v>
+        <v>28.37213814896665</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>25.27552460269758</v>
+        <v>28.37213817441819</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>29.34891414464171</v>
+        <v>28.37213818188511</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>18.42850544303477</v>
+        <v>28.37213815649777</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>29.93356430885522</v>
+        <v>28.3721381787727</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>33.49548639792418</v>
+        <v>28.37213818530767</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>26.34282268553262</v>
+        <v>28.37213817415001</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>37.84441188835874</v>
+        <v>28.37213819879927</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>41.95366236576977</v>
+        <v>28.37213820595474</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>19.45377736333539</v>
+        <v>28.37213816928617</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>37.60227085622323</v>
+        <v>28.37213820432008</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>43.21785649325604</v>
+        <v>28.37213821459824</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>15.67828927194124</v>
+        <v>28.37213818820642</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>28.77924514880752</v>
+        <v>28.37213821281688</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>32.80539665367262</v>
+        <v>28.37213822004</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>13.94057095509342</v>
+        <v>28.37213819422059</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>28.41997856659474</v>
+        <v>28.37213822142848</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>32.87125859569868</v>
+        <v>28.37213822941393</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>21.01677488318062</v>
+        <v>28.37213820313</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>33.67611404501373</v>
+        <v>28.37213822694206</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>12.93355890745054</v>
+        <v>28.37213812493039</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>24.93974741096024</v>
+        <v>28.37213814790074</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>28.63747840958595</v>
+        <v>28.37213815482471</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>11.44794509223603</v>
+        <v>28.37213812825462</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>24.71703460203097</v>
+        <v>28.37213815364929</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>28.80532547609368</v>
+        <v>28.37213816130403</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>17.89474723739407</v>
+        <v>28.3721381355521</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>29.49547913872112</v>
+        <v>28.37213815777726</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>33.0704150311898</v>
+        <v>28.37213816447661</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>25.89917990627211</v>
+        <v>28.37213815331534</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>37.50258445667087</v>
+        <v>28.37213817797852</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>41.61730946148305</v>
+        <v>28.37213818530272</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>18.92505472659848</v>
+        <v>28.37213814909163</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>37.22464618012642</v>
+        <v>28.37213818404725</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>42.86079206449357</v>
+        <v>28.37213819458396</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>15.25265669148376</v>
+        <v>28.37213816796124</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>28.4704068092725</v>
+        <v>28.37213819252018</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>32.51250222953346</v>
+        <v>28.37213819992235</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>13.07053940440934</v>
+        <v>28.37213817255349</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>27.67900026461247</v>
+        <v>28.37213819970443</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>32.14793995924992</v>
+        <v>28.37213820788783</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>20.29286141271997</v>
+        <v>28.37213818122935</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>33.06498875716748</v>
+        <v>28.37213820499157</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>30.15143815694463</v>
+        <v>28.37213820560148</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>22.6272639315902</v>
+        <v>28.37213819311568</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>35.20522843059563</v>
+        <v>28.37213821925828</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>39.70357099067395</v>
+        <v>28.37213822702501</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>15.7246077795983</v>
+        <v>28.37213818742307</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>35.33091887697415</v>
+        <v>28.37213822434631</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>41.46029074079124</v>
+        <v>28.37213823554081</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>17.51977862309154</v>
+        <v>28.37213821405831</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>30.5370815066037</v>
+        <v>28.37213823755213</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>34.59465922510488</v>
+        <v>28.37213824463526</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>15.91339636135357</v>
+        <v>28.37213822007463</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>30.30058505348023</v>
+        <v>28.37213824604802</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>34.78657148115785</v>
+        <v>28.37213825387872</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>23.20836017752614</v>
+        <v>28.37213822914946</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>35.78730256695664</v>
+        <v>28.37213825188111</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>39.709878807076</v>
+        <v>28.37213825873446</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>32.57631342608908</v>
+        <v>28.37213824622902</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>45.36171413320989</v>
+        <v>28.37213827149144</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>49.94492562419516</v>
+        <v>28.37213827891532</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>25.67667005409244</v>
+        <v>28.37213823909315</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>45.51616890678971</v>
+        <v>28.37213827484539</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>51.7008909165986</v>
+        <v>28.3721382856243</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>35.92391951079655</v>
+        <v>28.37213822979314</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>28.29013190828844</v>
+        <v>28.37213821707634</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>41.13628478513563</v>
+        <v>28.37213824361949</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>45.69115905017232</v>
+        <v>28.37213825132246</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>21.1534735730929</v>
+        <v>28.37213821054998</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>41.18529223083184</v>
+        <v>28.37213824816151</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>47.37528536714534</v>
+        <v>28.37213825924647</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>22.5437146330033</v>
+        <v>28.37213823562765</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>35.83485754807948</v>
+        <v>28.37213825955758</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>39.92920111738828</v>
+        <v>28.37213826656627</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>21.57084866209856</v>
+        <v>28.37213824328419</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>36.2606919276127</v>
+        <v>28.37213826973972</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>40.78730261089799</v>
+        <v>28.37213827748813</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>29.03876051967785</v>
+        <v>28.37213825274065</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>41.88236264653444</v>
+        <v>28.37213827589426</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>45.84046282150134</v>
+        <v>28.37213828267559</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>38.60553204676279</v>
+        <v>28.37213826993452</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>51.65327936337725</v>
+        <v>28.37213829558224</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>56.28929786145648</v>
+        <v>28.37213830293811</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>31.46610669684102</v>
+        <v>28.37213826198475</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>51.72287525064432</v>
+        <v>28.37213829840064</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>57.96361609692723</v>
+        <v>28.37213830906628</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>37.56837465653994</v>
+        <v>28.37213823393085</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>29.99180900392313</v>
+        <v>28.37213822123816</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>42.79687445248312</v>
+        <v>28.37213824764821</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>47.31554265989013</v>
+        <v>28.37213825529152</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>22.84916766118281</v>
+        <v>28.37213821460076</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>42.81638718461336</v>
+        <v>28.37213825205225</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>48.95330101635056</v>
+        <v>28.37213826304419</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>24.06055368177995</v>
+        <v>28.37213823921672</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>37.30694372048175</v>
+        <v>28.37213826304661</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>41.36559657683179</v>
+        <v>28.37213826999447</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>23.24473089221135</v>
+        <v>28.37213824717015</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>37.88510690629342</v>
+        <v>28.37213827351508</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>42.3722556872107</v>
+        <v>28.37213828119624</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>30.70697730930335</v>
+        <v>28.37213825661323</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>43.50734014711645</v>
+        <v>28.37213827967005</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>47.43093139990364</v>
+        <v>28.37213828639252</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>40.25170206914862</v>
+        <v>28.37213827367386</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>53.25533976834099</v>
+        <v>28.37213829919488</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>57.8534461002612</v>
+        <v>28.37213830649103</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>33.10714970181669</v>
+        <v>28.37213826562489</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>53.29568178527727</v>
+        <v>28.37213830188854</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>59.48202733653277</v>
+        <v>28.3721383124616</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>36.97267170574398</v>
+        <v>28.3721382121536</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>29.38146425328783</v>
+        <v>28.3721381994732</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>42.31044489275985</v>
+        <v>28.37213822590511</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>46.83657842267241</v>
+        <v>28.37213823372701</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>22.1542168316999</v>
+        <v>28.37213819350266</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>42.29949583452633</v>
+        <v>28.37213823087576</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>48.4607807171364</v>
+        <v>28.37213824214017</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>23.26006750807868</v>
+        <v>28.37213821993976</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>36.63156291276327</v>
+        <v>28.37213824372222</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>40.70988028449798</v>
+        <v>28.37213825084681</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>22.00481347052779</v>
+        <v>28.37213822653051</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>36.78343110482349</v>
+        <v>28.37213825282301</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>41.29234817443216</v>
+        <v>28.37213826069955</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>29.61078020038521</v>
+        <v>28.37213823575971</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>42.5319737827851</v>
+        <v>28.37213825877065</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>46.47457863328232</v>
+        <v>28.37213826566411</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>39.28513927863618</v>
+        <v>28.37213825296108</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>52.42233407518856</v>
+        <v>28.37213827850557</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>57.03257768510107</v>
+        <v>28.37213828597838</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>32.0730931960961</v>
+        <v>28.37213824553756</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>52.45233450830125</v>
+        <v>28.37213828172905</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>58.66871755523113</v>
+        <v>28.37213829257105</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>4.371451828370621</v>
+        <v>28.37213811294282</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>15.47831621114979</v>
+        <v>28.3721381346203</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>18.9426900374925</v>
+        <v>28.37213814116344</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>2.271832458830421</v>
+        <v>28.37213811477349</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>14.54706359762785</v>
+        <v>28.37213813873884</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>18.37737674569714</v>
+        <v>28.37213814597255</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>8.053374210182071</v>
+        <v>28.37213812149807</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>18.78525343742862</v>
+        <v>28.37213814247231</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>22.13458113437312</v>
+        <v>28.37213814880317</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>15.45172386845864</v>
+        <v>28.37213813853376</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>26.1699990778599</v>
+        <v>28.37213816180885</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>30.02135030352914</v>
+        <v>28.37213816871872</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>9.215292414421821</v>
+        <v>28.37213813507742</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>26.14404406074393</v>
+        <v>28.3721381680656</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>31.42460711446876</v>
+        <v>28.37213817802276</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>6.029397208937507</v>
+        <v>28.37213815277904</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>18.26149546320648</v>
+        <v>28.37213817595131</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>22.05528320723676</v>
+        <v>28.37213818295492</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>3.272662182933988</v>
+        <v>28.37213815577613</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>16.79182247662467</v>
+        <v>28.37213818139404</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>20.98627381217102</v>
+        <v>28.37213818913682</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>9.766988560294649</v>
+        <v>28.37213816380391</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>21.586792322394</v>
+        <v>28.37213818622445</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>8.29486602694449</v>
+        <v>28.37213813185201</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>19.65013083315764</v>
+        <v>28.37213815394071</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>23.1469593010956</v>
+        <v>28.37213816041608</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>6.740033109996023</v>
+        <v>28.37213813515894</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>19.2897971698002</v>
+        <v>28.37213815957891</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>23.15596938348167</v>
+        <v>28.37213816673771</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>12.66233903253055</v>
+        <v>28.37213814223074</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>23.63428758035914</v>
+        <v>28.37213816360285</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>27.01497107655205</v>
+        <v>28.37213816986815</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>20.23756754515112</v>
+        <v>28.37213815941131</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>31.19420795018151</v>
+        <v>28.37213818305445</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>35.09241297321014</v>
+        <v>28.37213818990528</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>13.79339426015286</v>
+        <v>28.37213815522087</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>31.10064570914382</v>
+        <v>28.37213818883483</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>36.43065926316635</v>
+        <v>28.37213819868887</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>10.36874945885167</v>
+        <v>28.37213817327719</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>22.86667242041489</v>
+        <v>28.37213819688584</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>26.69747219878086</v>
+        <v>28.37213820381949</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>8.192514662817239</v>
+        <v>28.37213817786267</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>22.00546793326452</v>
+        <v>28.372138203963</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>26.2408152131831</v>
+        <v>28.37213821162844</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>14.84274186749412</v>
+        <v>28.37213818625895</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>26.91945831020423</v>
+        <v>28.3721382091017</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>9.702547573001587</v>
+        <v>28.37213813577622</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>21.02319228465859</v>
+        <v>28.37213815777159</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>24.48904381105586</v>
+        <v>28.37213816419185</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>8.290679038983924</v>
+        <v>28.37213813938477</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>20.80217883657896</v>
+        <v>28.37213816370156</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>24.63409937118404</v>
+        <v>28.37213817079943</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>14.21237196914696</v>
+        <v>28.37213814645594</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>25.15088012046164</v>
+        <v>28.37213816773775</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>28.50161003128355</v>
+        <v>28.37213817394974</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>21.77456514907906</v>
+        <v>28.37213816351228</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>32.69866203817193</v>
+        <v>28.37213818703819</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>36.56498948248616</v>
+        <v>28.37213819383559</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>15.32497419731073</v>
+        <v>28.3721381592108</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>32.57942727026424</v>
+        <v>28.37213819268273</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>37.86222941808859</v>
+        <v>28.3721382024529</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>11.86566467625946</v>
+        <v>28.3721381771424</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>24.32366278964464</v>
+        <v>28.37213820065073</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>28.12139825076786</v>
+        <v>28.37213820752577</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>9.845458112085137</v>
+        <v>28.37213818203842</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>23.61428187367109</v>
+        <v>28.37213820802786</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>27.81307009277312</v>
+        <v>28.3721382156285</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>16.49353722836122</v>
+        <v>28.37213819042723</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>28.53168314985034</v>
+        <v>28.37213821317293</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>9.440669901125521</v>
+        <v>28.37213811736768</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>20.85685270003171</v>
+        <v>28.37213813931039</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>24.33510274092098</v>
+        <v>28.37213814589312</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>7.63762740155752</v>
+        <v>28.37213811969699</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>20.25468865587258</v>
+        <v>28.37213814395557</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>24.10034592330202</v>
+        <v>28.37213815123305</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>13.68695037571476</v>
+        <v>28.37213812655007</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>24.71770529155815</v>
+        <v>28.37213814778093</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>28.08043121330494</v>
+        <v>28.37213815415011</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>21.33376165591393</v>
+        <v>28.3721381437203</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>32.355905150239</v>
+        <v>28.37213816725532</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>36.22711764076098</v>
+        <v>28.37213817421343</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>14.80155050627571</v>
+        <v>28.37213814002887</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>32.20168178736307</v>
+        <v>28.37213817342067</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>37.50343736291652</v>
+        <v>28.37213818343808</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>11.45006914543854</v>
+        <v>28.37213815789514</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>24.02055137877528</v>
+        <v>28.37213818135025</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>27.8331115754102</v>
+        <v>28.37213818839684</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>9.003165844428523</v>
+        <v>28.37213816142903</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>22.89628229879628</v>
+        <v>28.37213818735963</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>27.11149135343322</v>
+        <v>28.37213819514992</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>15.79033593661576</v>
+        <v>28.37213816959968</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>27.93711126924769</v>
+        <v>28.37213819229388</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>25.25443527394075</v>
+        <v>28.37213819300085</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>18.16527312453216</v>
+        <v>28.37213818131584</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>30.11315110264805</v>
+        <v>28.37213820625662</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>34.35428386918431</v>
+        <v>28.37213821364442</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>11.6966811298743</v>
+        <v>28.37213817623256</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>30.33960458376901</v>
+        <v>28.37213821149547</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>36.12251683190973</v>
+        <v>28.37213822215337</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>14.19589417859207</v>
+        <v>28.37213820293843</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>26.58194993648812</v>
+        <v>28.37213822537374</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>30.41589667940083</v>
+        <v>28.37213823213138</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>12.31989653571886</v>
+        <v>28.37213820793504</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>26.00943574755237</v>
+        <v>28.37213823273821</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>30.24823057846768</v>
+        <v>28.37213824020906</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>19.19972680438842</v>
+        <v>28.37213821650915</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>31.16876486343673</v>
+        <v>28.37213823821663</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>34.87514867553376</v>
+        <v>28.37213824475504</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>28.13954351746501</v>
+        <v>28.3721382330529</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>40.28917406007775</v>
+        <v>28.37213825715153</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>44.61935429075501</v>
+        <v>28.37213826422737</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>21.64591765598341</v>
+        <v>28.37213822656712</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>40.523192246067</v>
+        <v>28.37213826070854</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>46.36721986273358</v>
+        <v>28.37213827099213</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>30.62286124447413</v>
+        <v>28.37213821581042</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>23.43027654732494</v>
+        <v>28.37213820389698</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>35.63292576617022</v>
+        <v>28.37213822922498</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>39.92695153856464</v>
+        <v>28.37213823655121</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>16.74233143201257</v>
+        <v>28.37213819802383</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>35.79030244886291</v>
+        <v>28.37213823395079</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>41.62961217042059</v>
+        <v>28.37213824450223</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>18.87296917162815</v>
+        <v>28.37213822328898</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>31.51982374233691</v>
+        <v>28.37213824614538</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>35.38788988689105</v>
+        <v>28.37213825283041</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>17.59564557738364</v>
+        <v>28.37213822984556</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>31.57342575783706</v>
+        <v>28.37213825511426</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>35.84992177099902</v>
+        <v>28.37213826250484</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>24.63733489610724</v>
+        <v>28.37213823877813</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>36.85842983857877</v>
+        <v>28.37213826089305</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>40.59778088972892</v>
+        <v>28.3721382673612</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>33.76655761153745</v>
+        <v>28.37213825542729</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>46.16555945558299</v>
+        <v>28.37213827989873</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>50.54503086669445</v>
+        <v>28.37213828690857</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>27.04759545983384</v>
+        <v>28.37213824816948</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>46.32226444925714</v>
+        <v>28.3721382829517</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>52.21828193481565</v>
+        <v>28.3721382931248</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>32.20311538210875</v>
+        <v>28.37213821982493</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>25.06395693037312</v>
+        <v>28.37213820793249</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>37.22783120217748</v>
+        <v>28.3721382331337</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>41.48756485518731</v>
+        <v>28.37213824040284</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>18.36980082063974</v>
+        <v>28.37213820195174</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>37.3568923818403</v>
+        <v>28.37213823772606</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>43.1458081745245</v>
+        <v>28.3721382481883</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>20.32755150259904</v>
+        <v>28.37213822677244</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>32.93214137057709</v>
+        <v>28.37213824953353</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>36.76624159060704</v>
+        <v>28.37213825616008</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>19.20216308468308</v>
+        <v>28.37213823361748</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>33.13322629491454</v>
+        <v>28.37213825878081</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>37.37216730649138</v>
+        <v>28.37213826610673</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>26.2384700338616</v>
+        <v>28.37213824253734</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>38.41872963114841</v>
+        <v>28.37213826456004</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>42.12523966744808</v>
+        <v>28.37213827097161</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>35.34621641117455</v>
+        <v>28.37213825905714</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>47.70353164612374</v>
+        <v>28.37213828340801</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>52.04698062841899</v>
+        <v>28.37213829036054</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>28.62200988333446</v>
+        <v>28.37213825170303</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>47.83223668360449</v>
+        <v>28.37213828634022</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>53.67648655120384</v>
+        <v>28.37213829642431</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>31.62288324296199</v>
+        <v>28.37213819911187</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>24.46731064835858</v>
+        <v>28.37213818724216</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>36.75032652677123</v>
+        <v>28.37213821245958</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>41.01683839729714</v>
+        <v>28.37213821989911</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>17.6907119425994</v>
+        <v>28.3721381818977</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>36.84928968558987</v>
+        <v>28.37213821759102</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>42.66086697857253</v>
+        <v>28.37213822831432</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>19.56023275563042</v>
+        <v>28.37213820843323</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>32.28521490948781</v>
+        <v>28.37213823114481</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>36.13767827268288</v>
+        <v>28.37213823794121</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>18.01280169315335</v>
+        <v>28.37213821397173</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>32.07690073576514</v>
+        <v>28.37213823908031</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>36.33617022363296</v>
+        <v>28.37213824659402</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>25.1862821540613</v>
+        <v>28.37213822269154</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>37.48282385061843</v>
+        <v>28.37213824466632</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>41.20708907248746</v>
+        <v>28.37213825124224</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>34.41586941044858</v>
+        <v>28.37213823935273</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>46.90135344388794</v>
+        <v>28.37213826372117</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>51.25612948627511</v>
+        <v>28.37213827084286</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>27.62523575503473</v>
+        <v>28.37213823259602</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>47.01898612099011</v>
+        <v>28.37213826715785</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>52.89128704869182</v>
+        <v>28.37213827750043</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>6.7430939834518</v>
+        <v>28.37213811721402</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>18.64823756636655</v>
+        <v>28.37213814030317</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>22.36509558020482</v>
+        <v>28.37213814727475</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>4.789624175926878</v>
+        <v>28.37213811969866</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>17.94708939185947</v>
+        <v>28.37213814522467</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>22.05654063354176</v>
+        <v>28.37213815293204</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>11.01659729220289</v>
+        <v>28.37213812697706</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>22.51977388504701</v>
+        <v>28.37213814931717</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>26.11321491909354</v>
+        <v>28.37213815606258</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>18.8915675110014</v>
+        <v>28.37213814487133</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>30.40590735632848</v>
+        <v>28.37213816967979</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>34.54360893840051</v>
+        <v>28.37213817704712</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>12.13580899695528</v>
+        <v>28.37213814082456</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>30.28130740758136</v>
+        <v>28.37213817596098</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>35.94662835787927</v>
+        <v>28.37213818657013</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>9.070301498247051</v>
+        <v>28.37213816031793</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>22.17731633312587</v>
+        <v>28.37213818500116</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>26.24129292461618</v>
+        <v>28.3721381924605</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>6.452140699254016</v>
+        <v>28.37213816406669</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>20.93826315661679</v>
+        <v>28.37213819135502</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>25.43141600186019</v>
+        <v>28.37213819960163</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>13.44467541365895</v>
+        <v>28.37213817273593</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>26.10987747851441</v>
+        <v>28.37213819661839</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>11.00537037636277</v>
+        <v>28.37213813753447</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>23.17603347869903</v>
+        <v>28.37213816106007</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>26.92776832873113</v>
+        <v>28.3721381679583</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>9.636371561472206</v>
+        <v>28.37213814159393</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>23.08729002963696</v>
+        <v>28.37213816760245</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>27.23527601865571</v>
+        <v>28.37213817522872</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>16.0152221110476</v>
+        <v>28.37213814924507</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>27.77501246770248</v>
+        <v>28.37213817200747</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>31.40214926930608</v>
+        <v>28.37213817868192</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>24.07921199208078</v>
+        <v>28.37213816729127</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>35.84866344413005</v>
+        <v>28.37213819248962</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>40.0365369907155</v>
+        <v>28.37213819979246</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>17.09978179976541</v>
+        <v>28.37213816245655</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>35.64986799756051</v>
+        <v>28.37213819825714</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>41.36832837895937</v>
+        <v>28.37213820875467</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>13.78251781580709</v>
+        <v>28.37213818232739</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>27.17360825605539</v>
+        <v>28.37213820747356</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>31.2772782385083</v>
+        <v>28.37213821485718</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>11.78713218964391</v>
+        <v>28.37213818777024</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>26.58721908929036</v>
+        <v>28.37213821557038</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>31.12422995310372</v>
+        <v>28.37213822373328</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>18.94779146874488</v>
+        <v>28.3721381968347</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>31.88754475196981</v>
+        <v>28.3721382211651</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>12.48732023453649</v>
+        <v>28.37213814165699</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>24.62058012675831</v>
+        <v>28.37213816508313</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>28.33916913756888</v>
+        <v>28.37213817192264</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>11.2690330170367</v>
+        <v>28.37213814603447</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>24.67861121454293</v>
+        <v>28.37213817193303</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>28.78994731231159</v>
+        <v>28.37213817949441</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>17.64696119021002</v>
+        <v>28.37213815368426</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.37062270142674</v>
+        <v>28.37213817635043</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>32.96570845820392</v>
+        <v>28.37213818296806</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>25.69744794359399</v>
+        <v>28.37213817159993</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>37.43162447289088</v>
+        <v>28.37213819667319</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>41.58528434672289</v>
+        <v>28.37213820391895</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>18.71294648503286</v>
+        <v>28.37213816664895</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>37.20599037847473</v>
+        <v>28.37213820229818</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>42.87393424282959</v>
+        <v>28.37213821270636</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>15.35624584821914</v>
+        <v>28.37213818638051</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>28.7042546236999</v>
+        <v>28.37213821141971</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>32.7725797529734</v>
+        <v>28.37213821874092</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>13.5252415111973</v>
+        <v>28.37213819215072</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>28.27770967988447</v>
+        <v>28.3721382198326</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>32.77563991047776</v>
+        <v>28.3721382279265</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>20.68331723534131</v>
+        <v>28.37213820120644</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>33.58145012757326</v>
+        <v>28.37213822543335</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>12.22939033062665</v>
+        <v>28.37213812203987</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>24.46485206526894</v>
+        <v>28.37213814541131</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>28.19722482103717</v>
+        <v>28.37213815242513</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>10.59787762335312</v>
+        <v>28.37213812506084</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>24.12037881446945</v>
+        <v>28.37213815089893</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>28.2469849624835</v>
+        <v>28.37213815865299</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>17.11177804116574</v>
+        <v>28.37213813247737</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>28.93411915164629</v>
+        <v>28.37213815509062</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>32.54254117300497</v>
+        <v>28.3721381618769</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>25.25247884626496</v>
+        <v>28.3721381505129</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>37.09205699687259</v>
+        <v>28.37213817559801</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>41.25166440335805</v>
+        <v>28.37213818301673</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>18.17985975481152</v>
+        <v>28.37213814621176</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>36.82874144763333</v>
+        <v>28.37213818177776</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>42.51775280520086</v>
+        <v>28.37213819245119</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>14.94248396087478</v>
+        <v>28.37213816588266</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>28.41086632347605</v>
+        <v>28.37213819086683</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>32.49549940738437</v>
+        <v>28.37213819837201</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>12.66097676541707</v>
+        <v>28.37213817020848</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>27.54645413674455</v>
+        <v>28.37213819782953</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>32.06244672707211</v>
+        <v>28.37213820612681</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>19.96728708911552</v>
+        <v>28.37213817903107</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>32.98166733131846</v>
+        <v>28.37213820320473</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>30.03873632672591</v>
+        <v>28.37213820383574</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>22.38560994737435</v>
+        <v>28.37213819112429</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>35.21480201325866</v>
+        <v>28.37213821771249</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>39.76559712419107</v>
+        <v>28.37213822558615</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>15.37123503970194</v>
+        <v>28.37213818532434</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>35.34766635451291</v>
+        <v>28.37213822288657</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>41.5423247821362</v>
+        <v>28.37213823423798</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>17.21532257539405</v>
+        <v>28.37213821266849</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>30.47488398516586</v>
+        <v>28.37213823656091</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>34.58180215152459</v>
+        <v>28.37213824375585</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>15.52757572721119</v>
+        <v>28.37213821847338</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>30.18252877710882</v>
+        <v>28.37213824488744</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>34.72309475652776</v>
+        <v>28.37213825284175</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>22.91006264492562</v>
+        <v>28.37213822769983</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>35.72316690451608</v>
+        <v>28.37213825081715</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>39.69344739920303</v>
+        <v>28.37213825777868</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>32.42727074053028</v>
+        <v>28.37213824505767</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>45.46261736976414</v>
+        <v>28.37213827074451</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>50.10743994345439</v>
+        <v>28.37213827828322</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>25.41199141779114</v>
+        <v>28.37213823780294</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>45.62058079499262</v>
+        <v>28.37213827416175</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>51.88059136895446</v>
+        <v>28.37213828511081</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>35.85475399190651</v>
+        <v>28.37213822830919</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>28.09079114033709</v>
+        <v>28.37213821535456</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>41.19258433439038</v>
+        <v>28.37213824235278</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>45.79994840276741</v>
+        <v>28.37213825015917</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>20.84030299663267</v>
+        <v>28.37213820870758</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>41.24959448892636</v>
+        <v>28.37213824697432</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>47.50473430211173</v>
+        <v>28.3721382582105</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>22.27667276471621</v>
+        <v>28.37213823449545</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>35.81477957483142</v>
+        <v>28.37213825883448</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>39.95841400049422</v>
+        <v>28.3721382659512</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>21.23044672531586</v>
+        <v>28.37213824196226</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>36.1932549458828</v>
+        <v>28.37213826887006</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>40.7743909736992</v>
+        <v>28.37213827673789</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>28.78709061599123</v>
+        <v>28.37213825157258</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>41.86940300728179</v>
+        <v>28.37213827512202</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>45.87515969694472</v>
+        <v>28.37213828200787</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>38.50625084015152</v>
+        <v>28.3721382690394</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>51.80828831371544</v>
+        <v>28.37213829512095</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>56.5059710033146</v>
+        <v>28.37213830258807</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>31.24884314035968</v>
+        <v>28.37213826095752</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>51.88187087530983</v>
+        <v>28.37213829799596</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>58.19782659209486</v>
+        <v>28.37213830882599</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>37.51448336034275</v>
+        <v>28.37213823251704</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>29.80843352583229</v>
+        <v>28.37213821958674</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>42.86828112276287</v>
+        <v>28.37213824644955</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>47.43886919052161</v>
+        <v>28.37213825419501</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>22.55210677899864</v>
+        <v>28.37213821282743</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>42.89570554263803</v>
+        <v>28.37213825093139</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>49.09697617651594</v>
+        <v>28.37213826207259</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>23.80789150913554</v>
+        <v>28.37213823814547</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>37.30050637797419</v>
+        <v>28.3721382623828</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>41.4078695193224</v>
+        <v>28.37213826943733</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>22.92171871865628</v>
+        <v>28.37213824591635</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>37.83424285865274</v>
+        <v>28.37213827271173</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>42.37527493974105</v>
+        <v>28.37213828051079</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>30.47243602649425</v>
+        <v>28.37213825551241</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>43.51079490975575</v>
+        <v>28.37213827896346</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>47.48148140948572</v>
+        <v>28.37213828578912</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>40.16901138135869</v>
+        <v>28.37213827284321</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>53.42607106174242</v>
+        <v>28.37213829879592</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>58.08517824354394</v>
+        <v>28.37213830620195</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>32.90663790888927</v>
+        <v>28.37213826466091</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>53.47030319745419</v>
+        <v>28.3721383015446</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>59.73097817524337</v>
+        <v>28.37213831227998</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>36.93047501064297</v>
+        <v>28.37213821046642</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>29.20607402129716</v>
+        <v>28.37213819755628</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>42.39397352883509</v>
+        <v>28.37213822443884</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>46.97249913124963</v>
+        <v>28.37213823236759</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>21.8615914950697</v>
+        <v>28.3721381914742</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>42.38870293372761</v>
+        <v>28.37213822949442</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>48.61489870878702</v>
+        <v>28.37213824091558</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>23.01299065436334</v>
+        <v>28.37213821862129</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>36.63439995568441</v>
+        <v>28.37213824280752</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>40.76182147699328</v>
+        <v>28.37213825004387</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>21.68162736597166</v>
+        <v>28.37213822500761</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>36.73647068385652</v>
+        <v>28.3721382517465</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>41.29970678361703</v>
+        <v>28.37213825974658</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>29.37822695199703</v>
+        <v>28.37213823439004</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>42.54098211489759</v>
+        <v>28.37213825779165</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>46.53106307590939</v>
+        <v>28.37213826479324</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>39.20494762859671</v>
+        <v>28.37213825187063</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>52.5997381611293</v>
+        <v>28.37213827784445</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>57.27156186484447</v>
+        <v>28.37213828543207</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>31.87180282834402</v>
+        <v>28.37213824432396</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>52.63179834241872</v>
+        <v>28.37213828112989</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>58.92311068324008</v>
+        <v>28.37213829214195</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>7.792306110086116</v>
+        <v>28.37213812290574</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>19.59685229430188</v>
+        <v>28.37213814587848</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>23.36980903488069</v>
+        <v>28.37213815291131</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>5.997498020795813</v>
+        <v>28.37213812597984</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>19.04374164618468</v>
+        <v>28.37213815137716</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>23.21512434999243</v>
+        <v>28.37213815915225</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>12.2312548356964</v>
+        <v>28.37213813326803</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>23.63708205698117</v>
+        <v>28.37213815549551</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>27.28473187150206</v>
+        <v>28.37213816230019</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>20.13328193179951</v>
+        <v>28.37213815114383</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>31.54821901549344</v>
+        <v>28.37213817587448</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>35.75032035981017</v>
+        <v>28.37213818332018</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>13.44230676457228</v>
+        <v>28.3721381470691</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>31.43468606323869</v>
+        <v>28.37213818202837</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>37.18526714761447</v>
+        <v>28.37213819273074</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>10.04073833823062</v>
+        <v>28.37213816642554</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>23.04426334198307</v>
+        <v>28.37213819099016</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>27.16807591509187</v>
+        <v>28.37213819851043</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>7.565188447981846</v>
+        <v>28.37213817077889</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>21.93690146855742</v>
+        <v>28.3721381979361</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>26.49610292474175</v>
+        <v>28.37213820625008</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>14.55231158146871</v>
+        <v>28.37213817944479</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>27.11737618667225</v>
+        <v>28.3721382032125</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>12.18642298302616</v>
+        <v>28.372138143626</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>24.25549245720001</v>
+        <v>28.37213816703172</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>28.06539718411447</v>
+        <v>28.37213817399307</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>10.98444911593504</v>
+        <v>28.3721381482932</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>24.3230447623265</v>
+        <v>28.37213817416919</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>28.53524941900187</v>
+        <v>28.37213818186526</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>17.37346934063591</v>
+        <v>28.3721381559663</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>29.03494552540482</v>
+        <v>28.3721381786127</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>32.71829204198308</v>
+        <v>28.37213818534822</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>25.46560662327626</v>
+        <v>28.37213817400346</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>37.13504266184692</v>
+        <v>28.37213819912007</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>41.38966666696075</v>
+        <v>28.37213820650226</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>18.54804015676817</v>
+        <v>28.3721381691316</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>36.94349315669634</v>
+        <v>28.37213820474976</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>42.75036500049408</v>
+        <v>28.37213821534335</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>14.88949561502026</v>
+        <v>28.37213818884203</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>28.17606793338357</v>
+        <v>28.3721382138657</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>32.34174999121814</v>
+        <v>28.37213822131253</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>13.04486979789682</v>
+        <v>28.3721381949078</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>27.72941062017535</v>
+        <v>28.37213822257251</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>32.33487326132981</v>
+        <v>28.37213823080528</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>20.20358797144385</v>
+        <v>28.37213820398127</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>33.04220797489151</v>
+        <v>28.37213822819314</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>13.69083402901696</v>
+        <v>28.37213814777304</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>25.72290115763465</v>
+        <v>28.37213817108035</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>29.49955063958296</v>
+        <v>28.37213817798315</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>12.63986061773415</v>
+        <v>28.37213815275692</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>25.93755902803082</v>
+        <v>28.37213817852412</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>30.11299325955308</v>
+        <v>28.37213818615546</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>19.02870531342343</v>
+        <v>28.37213816043074</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>30.65444043670724</v>
+        <v>28.37213818298194</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>34.30563009693046</v>
+        <v>28.37213818966081</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>27.1078145303584</v>
+        <v>28.37213817833833</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>38.74253592067334</v>
+        <v>28.37213820333064</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>42.96274736019239</v>
+        <v>28.37213821065568</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>20.18421893735645</v>
+        <v>28.37213817334838</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>38.5232395473377</v>
+        <v>28.37213820881679</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>44.27942978423366</v>
+        <v>28.37213821932128</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>16.48675819445143</v>
+        <v>28.37213819291661</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.7306484524001</v>
+        <v>28.37213821783431</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>33.86087137373286</v>
+        <v>28.37213822521898</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>14.80681349578484</v>
+        <v>28.37213819930829</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>29.44417713721124</v>
+        <v>28.37213822685584</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>34.01043331487169</v>
+        <v>28.37213823501989</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>21.9637983676939</v>
+        <v>28.37213820837523</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>34.76118446697749</v>
+        <v>28.37213823248457</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>13.37380857161283</v>
+        <v>28.37213812787436</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>25.50501272895346</v>
+        <v>28.37213815112856</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>29.29499385811834</v>
+        <v>28.37213815820521</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>11.90793843100982</v>
+        <v>28.37213813149389</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>25.31517099987574</v>
+        <v>28.37213815720238</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>29.5053756274268</v>
+        <v>28.3721381650259</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>18.43113936067871</v>
+        <v>28.37213813892361</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>30.15258957261223</v>
+        <v>28.37213816142342</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>33.81667874244873</v>
+        <v>28.37213816827049</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>26.60306380669044</v>
+        <v>28.37213815694198</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>38.34024682631258</v>
+        <v>28.37213818194873</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>42.56561362291114</v>
+        <v>28.3721381894475</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>19.59612402380107</v>
+        <v>28.37213815260974</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>38.08631296071884</v>
+        <v>28.37213818799733</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>43.8628823928624</v>
+        <v>28.37213819876637</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>16.00651322117656</v>
+        <v>28.37213817213682</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>29.36763200506913</v>
+        <v>28.37213819700144</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>33.51374464605653</v>
+        <v>28.37213820456927</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>13.87384098503482</v>
+        <v>28.37213817707645</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>28.64073648284894</v>
+        <v>28.37213820456531</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>33.22459236772462</v>
+        <v>28.37213821293186</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>21.17704624270608</v>
+        <v>28.37213818589903</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>34.08763784309663</v>
+        <v>28.37213820995701</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>31.10404880422596</v>
+        <v>28.37213821048882</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>23.51925185124716</v>
+        <v>28.37213819779091</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>36.24779996076332</v>
+        <v>28.37213822430209</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>40.87129187265551</v>
+        <v>28.37213823225492</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>16.57603785642225</v>
+        <v>28.3721381919475</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>36.39494676596453</v>
+        <v>28.37213822932925</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>42.68053773565754</v>
+        <v>28.37213824077339</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>17.97358960462809</v>
+        <v>28.37213821843871</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>31.13099510956575</v>
+        <v>28.37213824221955</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>35.29115888311256</v>
+        <v>28.37213824945798</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>16.43905893576887</v>
+        <v>28.37213822478715</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>30.98107250823526</v>
+        <v>28.37213825107785</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>35.58039469967739</v>
+        <v>28.37213825908023</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>23.79883303572633</v>
+        <v>28.37213823399657</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>36.51309225320936</v>
+        <v>28.37213825700592</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>40.53481080585397</v>
+        <v>28.37213826400953</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>33.34239523241057</v>
+        <v>28.37213825127862</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>46.28227350952083</v>
+        <v>28.37213827689307</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>50.99080809808628</v>
+        <v>28.37213828449173</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>26.40928390248865</v>
+        <v>28.37213824397444</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>46.46235026868686</v>
+        <v>28.37213828016344</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>52.80324138217135</v>
+        <v>28.37213829117868</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>37.06933336054432</v>
+        <v>28.37213823539838</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>29.3733209010435</v>
+        <v>28.37213822246803</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>42.37386376790822</v>
+        <v>28.37213824938489</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>47.05641580925518</v>
+        <v>28.37213825727175</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>22.19098831143873</v>
+        <v>28.37213821576882</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>42.44119449517328</v>
+        <v>28.37213825384913</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>48.79057803902397</v>
+        <v>28.3721382651815</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>23.16266198495279</v>
+        <v>28.37213824064538</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>36.59749131870009</v>
+        <v>28.37213826486868</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>40.79656356980627</v>
+        <v>28.37213827203145</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>22.2770364762827</v>
+        <v>28.37213824867125</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>37.12566558916422</v>
+        <v>28.37213827545112</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>41.76797881540229</v>
+        <v>28.37213828336986</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>29.81425681929389</v>
+        <v>28.37213825827576</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>42.79663832997381</v>
+        <v>28.37213828171324</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>46.85595105466129</v>
+        <v>28.37213828864364</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>39.56034298583956</v>
+        <v>28.3721382756746</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>52.7661782360006</v>
+        <v>28.37213830167921</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>57.53010953844321</v>
+        <v>28.37213830920796</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>32.38229611552993</v>
+        <v>28.37213826753539</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>52.85809555873588</v>
+        <v>28.37213830439773</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>59.25826753181506</v>
+        <v>28.37213831529783</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>38.75402336090516</v>
+        <v>28.37213823962967</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>31.11606162908179</v>
+        <v>28.37213822672356</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>44.07521881126806</v>
+        <v>28.37213825350572</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>48.72076119938734</v>
+        <v>28.37213826133165</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>23.9268961163823</v>
+        <v>28.37213821991045</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>44.1120174724317</v>
+        <v>28.3721382578295</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>50.40735951158707</v>
+        <v>28.37213826906727</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>24.71753652005292</v>
+        <v>28.37213824431446</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>38.1072842184298</v>
+        <v>28.3721382684369</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>42.27004577047032</v>
+        <v>28.37213827553789</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>23.99216990793792</v>
+        <v>28.37213825264307</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>38.79096838472806</v>
+        <v>28.37213827931144</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>43.39313463649512</v>
+        <v>28.37213828716187</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>31.52440487842248</v>
+        <v>28.3721382622354</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>44.46322971212764</v>
+        <v>28.37213828557529</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>48.4874341995254</v>
+        <v>28.37213829244591</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>41.24825314417966</v>
+        <v>28.37213827949947</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>54.40964556423519</v>
+        <v>28.37213830537581</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>59.13485745547862</v>
+        <v>28.37213831284366</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>34.06415821076302</v>
+        <v>28.3721382712585</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>54.47121965627188</v>
+        <v>28.37213830796736</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>60.81605261148572</v>
+        <v>28.37213831877344</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>38.09584685042613</v>
+        <v>28.37213821727933</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>30.44591883853581</v>
+        <v>28.37213820438309</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>43.53015067583472</v>
+        <v>28.37213823118798</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>48.18293725144019</v>
+        <v>28.37213823919771</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>23.17376201832433</v>
+        <v>28.37213819825449</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>43.53760417721863</v>
+        <v>28.37213823609276</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>49.85723410352169</v>
+        <v>28.37213824760927</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>23.85736664225948</v>
+        <v>28.37213822452861</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>37.37303909699995</v>
+        <v>28.37213824860219</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>41.5553554685556</v>
+        <v>28.37213825588366</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>22.68542369636379</v>
+        <v>28.37213823146669</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>37.62336806454889</v>
+        <v>28.37213825808104</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>42.24718111689432</v>
+        <v>28.372138266131</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>30.36116202020136</v>
+        <v>28.37213824083497</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>43.42160732461822</v>
+        <v>28.37213826412759</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>47.46471937583696</v>
+        <v>28.37213827117283</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>40.21803059567706</v>
+        <v>28.37213825824037</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>53.51457398373503</v>
+        <v>28.37213828414104</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>58.25161241533738</v>
+        <v>28.3721382917903</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>32.96835544624275</v>
+        <v>28.37213825064139</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>53.56737403817002</v>
+        <v>28.3721382872759</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>59.94207647472398</v>
+        <v>28.37213829835662</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_2/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_2/out_of_sample/additive/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.133</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.309</v>
+        <v>19.53</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.047</v>
+        <v>0.596</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.396</v>
+        <v>17.031</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.026</v>
+        <v>0.639</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.778</v>
+        <v>16.486</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>28.37213811497349</v>
+        <v>-8.96589583301251</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>28.37213813774467</v>
+        <v>18.91144466629811</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28.37213814454848</v>
+        <v>24.19505510912818</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>28.37213811729253</v>
+        <v>-2.206606616613623</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>28.37213814246702</v>
+        <v>11.13444103237494</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28.37213814998891</v>
+        <v>16.93886435158389</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>28.37213812439464</v>
+        <v>6.426743585151733</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.3721381464271</v>
+        <v>18.55088528400352</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28.37213815301018</v>
+        <v>23.01375742456589</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.37213814195719</v>
+        <v>19.93454677613129</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>28.37213816638165</v>
+        <v>27.64780665990982</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>28.37213817355859</v>
+        <v>31.69156959583637</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>28.37213813798278</v>
+        <v>1.193130279433561</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>28.37213817263533</v>
+        <v>20.00178406785027</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28.37213818298916</v>
+        <v>26.48352541900504</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>28.37213815709853</v>
+        <v>-10.85828069371166</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>28.37213818144274</v>
+        <v>21.29409415711451</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>28.37213818871909</v>
+        <v>27.95708806322787</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>28.37213816064653</v>
+        <v>-7.955953993166936</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>28.37213818756007</v>
+        <v>9.571181369996605</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>28.37213819560438</v>
+        <v>16.45011362849055</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>28.37213816912719</v>
+        <v>4.288271075253604</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>28.37213819268164</v>
+        <v>19.7133022972884</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>28.3721381345949</v>
+        <v>-2.482340232393337</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>28.37213815779316</v>
+        <v>27.55388758262855</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>28.37213816452629</v>
+        <v>32.68283628867283</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>28.37213813844403</v>
+        <v>7.379317982177987</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>28.37213816409068</v>
+        <v>22.62029421144508</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>28.37213817153443</v>
+        <v>28.22582622529479</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>28.37213814590406</v>
+        <v>16.78473759520576</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>28.37213816834974</v>
+        <v>30.61123879816727</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>28.37213817486444</v>
+        <v>34.89422436560587</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>28.37213816361493</v>
+        <v>33.83916956365512</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>28.37213818842179</v>
+        <v>42.03092798921169</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>28.37213819553766</v>
+        <v>46.06155896070754</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>28.37213815887663</v>
+        <v>13.59712726185774</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>28.3721381941791</v>
+        <v>34.6897515652864</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>28.37213820442538</v>
+        <v>40.94138259870127</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>28.37213817837091</v>
+        <v>-1.423728781332382</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>28.37213820316817</v>
+        <v>33.08772600299356</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>28.37213821037157</v>
+        <v>39.61963417598892</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>28.37213818356553</v>
+        <v>5.070657675138559</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>28.37213821097993</v>
+        <v>24.67932356314304</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>28.37213821894358</v>
+        <v>31.37777567447779</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>28.37213819242583</v>
+        <v>18.27481491184803</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>28.37213821641864</v>
+        <v>35.56153007235365</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>28.37213813861017</v>
+        <v>-2.656529281415889</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>28.37213816170967</v>
+        <v>27.72219930968739</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>28.37213816838524</v>
+        <v>32.91655145814629</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>28.37213814276868</v>
+        <v>8.069250424848921</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>28.37213816830614</v>
+        <v>23.72090762344423</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>28.37213817568626</v>
+        <v>29.38583192621964</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>28.37213815022627</v>
+        <v>17.48061146583966</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>28.3721381725764</v>
+        <v>31.67033957374189</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>28.3721381790354</v>
+        <v>36.00973339727014</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>28.37213816780886</v>
+        <v>35.25046683787915</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>28.37213819249213</v>
+        <v>43.49623806513884</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>28.37213819955235</v>
+        <v>47.60568404253355</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>28.37213816295787</v>
+        <v>14.79115387158177</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>28.37213819811005</v>
+        <v>36.35629750648603</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>28.37213820826874</v>
+        <v>42.67499497598403</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>28.372138182318</v>
+        <v>-1.033682991439502</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>28.37213820700911</v>
+        <v>33.8411704554748</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>28.37213821415134</v>
+        <v>40.44514713058486</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>28.37213818783111</v>
+        <v>6.45043442396927</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>28.37213821512816</v>
+        <v>26.4888024642196</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>28.37213822302418</v>
+        <v>33.25425063076444</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>28.37213819668155</v>
+        <v>19.66971311596442</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>28.37213822057165</v>
+        <v>37.33919758781474</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>28.37213811959</v>
+        <v>-5.957670947571074</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>28.37213814263851</v>
+        <v>23.29235512494392</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>28.37213814948306</v>
+        <v>28.91976994894851</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>28.37213812242886</v>
+        <v>3.166826496909511</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>28.37213814790995</v>
+        <v>17.75965346838645</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>28.37213815547689</v>
+        <v>23.89880692255588</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>28.37213812966401</v>
+        <v>11.92855603275307</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>28.3721381519648</v>
+        <v>25.16996337020473</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>28.37213815858731</v>
+        <v>29.92700388118808</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>28.37213814736499</v>
+        <v>27.1331351692111</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>28.37213817206115</v>
+        <v>35.13205733165174</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>28.37213817928787</v>
+        <v>39.50212538304445</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>28.37213814314315</v>
+        <v>7.51836768540409</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>28.37213817821772</v>
+        <v>27.83485308166035</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>28.37213818863357</v>
+        <v>34.69915165089549</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>28.37213816243703</v>
+        <v>-6.102533724528922</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>28.372138187077</v>
+        <v>27.57348020799716</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>28.37213819439754</v>
+        <v>34.63582276892194</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>28.37213816654457</v>
+        <v>-0.5687807657763457</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>28.37213819378508</v>
+        <v>18.35305993623808</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>28.37213820187824</v>
+        <v>25.61918573609433</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>28.37213817517319</v>
+        <v>11.87703250194298</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>28.37213819901381</v>
+        <v>28.54557253869289</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>28.37213819972194</v>
+        <v>25.07749543981068</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>28.3721381871977</v>
+        <v>21.84969789530502</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>28.37213821337278</v>
+        <v>32.44036701209041</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>28.37213822104109</v>
+        <v>37.63075133557908</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>28.37213818151302</v>
+        <v>1.398052539363388</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>28.37213821855935</v>
+        <v>25.34400246267514</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>28.3721382296323</v>
+        <v>32.99630439218713</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>28.37213820904872</v>
+        <v>-6.081198527684794</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>28.37213823262061</v>
+        <v>27.1205183396923</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>28.37213823964081</v>
+        <v>34.8196227254403</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>28.37213821465307</v>
+        <v>-2.548171456507891</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>28.37213824071277</v>
+        <v>16.37952933583117</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>28.37213824847389</v>
+        <v>24.5933304713209</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>28.37213822370387</v>
+        <v>12.13208003072543</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>28.37213824651105</v>
+        <v>28.76862156160736</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>28.37213825330351</v>
+        <v>35.16836106275949</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>28.37213824078725</v>
+        <v>34.62170377745441</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>28.37213826608238</v>
+        <v>45.9749261739517</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>28.37213827342701</v>
+        <v>51.96245176667704</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>28.37213823366808</v>
+        <v>11.57595684333539</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>28.37213826953911</v>
+        <v>37.11240775916252</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>28.37213828022226</v>
+        <v>46.20999939335429</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>28.37213822338835</v>
+        <v>40.76199097768672</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>28.37213821062478</v>
+        <v>39.64381845020731</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>28.37213823720204</v>
+        <v>50.7030964082399</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>28.37213824480665</v>
+        <v>55.88635189718019</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>28.37213820411837</v>
+        <v>17.61651276765604</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>28.37213824185414</v>
+        <v>44.06534651287555</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>28.37213825281607</v>
+        <v>51.50681222112613</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>28.37213823016236</v>
+        <v>6.109576322705657</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>28.37213825417141</v>
+        <v>41.65496677600645</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>28.3721382611159</v>
+        <v>49.16601455659446</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>28.37213823738425</v>
+        <v>13.51592740599949</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>28.37213826392725</v>
+        <v>34.50769063769093</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>28.37213827160466</v>
+        <v>42.49878039740067</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>28.37213824680419</v>
+        <v>29.24628966619073</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>28.37213827003436</v>
+        <v>47.73093083689186</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>28.37213827675355</v>
+        <v>53.92729141378264</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>28.37213826399492</v>
+        <v>55.62553022325667</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>28.37213828967725</v>
+        <v>67.41775720999709</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>28.37213829695348</v>
+        <v>73.3926971628395</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>28.37213825607297</v>
+        <v>30.99075842672559</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>28.37213829260927</v>
+        <v>59.00259699661125</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>28.37213830317718</v>
+        <v>67.84487517215814</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>28.37213822748218</v>
+        <v>42.60324105730436</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>28.37213821474315</v>
+        <v>41.75362817753508</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>28.37213824118673</v>
+        <v>52.83838013562239</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>28.3721382487319</v>
+        <v>58.11037767560321</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>28.3721382081278</v>
+        <v>19.52520440699207</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>28.37213824570203</v>
+        <v>46.46825709149729</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>28.37213825657087</v>
+        <v>53.98559608287246</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>28.37213823371428</v>
+        <v>7.557698079055207</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>28.37213825762243</v>
+        <v>43.45750821642481</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>28.37213826450588</v>
+        <v>51.01680988518764</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>28.3721382412319</v>
+        <v>16.0338669074571</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>28.37213826766334</v>
+        <v>37.44418243791714</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>28.37213827527329</v>
+        <v>45.47811970669174</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>28.37213825063651</v>
+        <v>31.79364666288107</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>28.37213827376905</v>
+        <v>50.65182624727601</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>28.3721382804292</v>
+        <v>56.89207045700019</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>28.37213826769328</v>
+        <v>58.87763266409542</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>28.37213829324844</v>
+        <v>70.68205516566297</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>28.37213830046499</v>
+        <v>76.73418013369013</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>28.37213825967402</v>
+        <v>34.03435409044762</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>28.37213829605676</v>
+        <v>62.52436939543667</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>28.37213830653181</v>
+        <v>71.41786169422343</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>28.37213820609686</v>
+        <v>34.25090270405484</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>28.37213819337792</v>
+        <v>31.16029934545653</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>28.3721382198422</v>
+        <v>42.03475783277528</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>28.37213822756383</v>
+        <v>47.6129112574156</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>28.37213818741859</v>
+        <v>9.840179703373476</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>28.372138224915</v>
+        <v>35.46555584552144</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>28.37213823605519</v>
+        <v>43.55982475911748</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>28.37213821477938</v>
+        <v>1.525899947636187</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>28.37213823864018</v>
+        <v>36.25682587552069</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>28.37213824570018</v>
+        <v>44.3233003602797</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>28.37213822094845</v>
+        <v>7.890307672344086</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>28.37213824732755</v>
+        <v>28.22133569788872</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>28.37213825513268</v>
+        <v>36.79363987299932</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>28.37213823015016</v>
+        <v>22.86001424553219</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>28.37213825323688</v>
+        <v>40.74862198483594</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>28.37213826006785</v>
+        <v>47.46624595910601</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>28.37213824735428</v>
+        <v>47.1413798098808</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>28.37213827293152</v>
+        <v>58.76702552733389</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>28.37213828032336</v>
+        <v>65.12937337979629</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>28.37213823995062</v>
+        <v>23.13346268964649</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>28.3721382762613</v>
+        <v>50.35026991503863</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>28.37213828700502</v>
+        <v>59.86272449277903</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>28.37213812015726</v>
+        <v>-10.02113228653323</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>28.37213814285035</v>
+        <v>16.03430913108848</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>28.37213814973197</v>
+        <v>21.52750399005152</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>28.372138122951</v>
+        <v>-4.396267560955671</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>28.37213814803915</v>
+        <v>7.530256506953258</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>28.37213815564707</v>
+        <v>13.53468144523504</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>28.3721381301115</v>
+        <v>3.93874335151823</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>28.37213815206841</v>
+        <v>14.78962214917975</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>28.37213815872678</v>
+        <v>19.44931066722605</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>28.37213814773445</v>
+        <v>16.49550897845397</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>28.37213817212576</v>
+        <v>23.62646593254931</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>28.37213817939849</v>
+        <v>27.87375227407322</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>28.37213814376146</v>
+        <v>-0.4671052862791782</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>28.37213817829517</v>
+        <v>16.61441508715191</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>28.37213818876743</v>
+        <v>23.33847359891002</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>28.37213816246186</v>
+        <v>-14.15805784856324</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>28.37213818672518</v>
+        <v>16.0161099207951</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>28.37213819408141</v>
+        <v>22.93826648504176</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>28.37213816648374</v>
+        <v>-12.34457086908884</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>28.37213819330785</v>
+        <v>3.624863803063487</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>28.37213820144047</v>
+        <v>10.76599534984418</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>28.37213817500771</v>
+        <v>-0.7117685995985426</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>28.3721381984839</v>
+        <v>13.3253502825849</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>28.3721381402521</v>
+        <v>-3.259777751157372</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>28.37213816337164</v>
+        <v>24.8850534243741</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>28.3721381701833</v>
+        <v>30.25189636626308</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>28.37213814460164</v>
+        <v>5.350973136775242</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>28.37213817016126</v>
+        <v>19.11453421758108</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>28.37213817769183</v>
+        <v>24.94885427537264</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>28.37213815213335</v>
+        <v>14.46669716106948</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>28.37213817450287</v>
+        <v>26.96262274692243</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>28.37213818109355</v>
+        <v>31.46801174106682</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>28.37213816991348</v>
+        <v>30.46320821800552</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>28.3721381946857</v>
+        <v>38.05875335690212</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>28.37213820189711</v>
+        <v>42.30861967258933</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>28.37213816516456</v>
+        <v>12.04593886132746</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>28.37213820034724</v>
+        <v>31.33497008716841</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>28.37213821071303</v>
+        <v>37.86237026644181</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>28.37213818421959</v>
+        <v>-4.542653481740398</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>28.37213820893521</v>
+        <v>27.91617619127803</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>28.37213821621945</v>
+        <v>34.7397593456717</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>28.37213818991415</v>
+        <v>0.7391114449072198</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>28.37213821723829</v>
+        <v>18.72302324163145</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>28.37213822529133</v>
+        <v>25.71689674345388</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>28.37213819883139</v>
+        <v>13.33322824478983</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>28.3721382227452</v>
+        <v>29.17099652471495</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>28.37213814430676</v>
+        <v>-3.274910174175428</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>28.37213816732854</v>
+        <v>25.21284794145005</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>28.37213817408262</v>
+        <v>30.6473191652308</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>28.37213814896665</v>
+        <v>6.178132661818779</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>28.37213817441819</v>
+        <v>20.35079382511256</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>28.37213818188511</v>
+        <v>26.24650612825199</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>28.37213815649777</v>
+        <v>15.30694809466655</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>28.3721381787727</v>
+        <v>28.16456185666367</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>28.37213818530767</v>
+        <v>32.72792602823399</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>28.37213817415001</v>
+        <v>31.99685334930768</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>28.37213819879927</v>
+        <v>39.64974517621829</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>28.37213820595474</v>
+        <v>43.97913323861074</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>28.37213816928617</v>
+        <v>13.35914522584421</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>28.37213820432008</v>
+        <v>33.1186551209208</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>28.37213821459824</v>
+        <v>39.71554438570639</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>28.37213818820642</v>
+        <v>-3.993214750203187</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>28.37213821281688</v>
+        <v>28.82984740415917</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>28.37213822004</v>
+        <v>35.72808930599958</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>28.37213819422059</v>
+        <v>2.255721806654488</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>28.37213822142848</v>
+        <v>20.66802003176395</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>28.37213822941393</v>
+        <v>27.73126262247489</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>28.37213820313</v>
+        <v>14.87321332541482</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>28.37213822694206</v>
+        <v>31.09238145884987</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>28.37213812493039</v>
+        <v>-6.762722029185994</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>28.37213814790074</v>
+        <v>20.62993571793864</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>28.37213815482471</v>
+        <v>26.47222185556717</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>28.37213812825462</v>
+        <v>1.160662495506529</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>28.37213815364929</v>
+        <v>14.30643746216779</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>28.37213816130403</v>
+        <v>20.65043875899135</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>28.3721381355521</v>
+        <v>9.633862006537104</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>28.37213815777726</v>
+        <v>21.57245309495738</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>28.37213816447661</v>
+        <v>26.5303816462279</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>28.37213815331534</v>
+        <v>23.82616185878368</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>28.37213817797852</v>
+        <v>31.23804869986107</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>28.37213818530272</v>
+        <v>35.81560051706669</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>28.37213814909163</v>
+        <v>6.016555378269747</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>28.37213818404725</v>
+        <v>24.5659172103997</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>28.37213819458396</v>
+        <v>31.67850215243521</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>28.37213816796124</v>
+        <v>-9.185832087433447</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>28.37213819252018</v>
+        <v>22.47473454399753</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>28.37213819992235</v>
+        <v>29.80307223067204</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>28.37213817255349</v>
+        <v>-4.811156628574278</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>28.37213819970443</v>
+        <v>12.51866234383768</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>28.37213820788783</v>
+        <v>20.05356419862853</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>28.37213818122935</v>
+        <v>7.031647509775819</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>28.37213820499157</v>
+        <v>22.28115442525274</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>28.37213820560148</v>
+        <v>18.94132148143843</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>28.37213819311568</v>
+        <v>15.77903976274189</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>28.37213821925828</v>
+        <v>25.69274649073239</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>28.37213822702501</v>
+        <v>31.15646114670218</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>28.37213818742307</v>
+        <v>-2.86346727611437</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>28.37213822434631</v>
+        <v>19.1902196291061</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>28.37213823554081</v>
+        <v>27.15170905409073</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>28.37213821405831</v>
+        <v>-8.576973109231581</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>28.37213823755213</v>
+        <v>22.69857550466497</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>28.37213824463526</v>
+        <v>30.59446678196569</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>28.37213822007463</v>
+        <v>-5.97288900117276</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>28.37213824604802</v>
+        <v>11.43673899544289</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>28.37213825387872</v>
+        <v>19.81838838293836</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>28.37213822914946</v>
+        <v>8.021219205190867</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>28.37213825188111</v>
+        <v>23.30615687365795</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>28.37213825873446</v>
+        <v>29.88586764260777</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>28.37213824622902</v>
+        <v>29.40653936375564</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>28.37213827149144</v>
+        <v>40.05773904321645</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>28.37213827891532</v>
+        <v>46.25435637053627</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>28.37213823909315</v>
+        <v>8.135509282466458</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>28.37213827484539</v>
+        <v>31.82023752872753</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>28.3721382856243</v>
+        <v>41.13649996947157</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>28.37213822979314</v>
+        <v>34.65282611832069</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>28.37213821707634</v>
+        <v>33.51070430199194</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>28.37213824361949</v>
+        <v>43.8820494331237</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>28.37213825132246</v>
+        <v>49.35561918682805</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>28.37213821054998</v>
+        <v>13.34028537499806</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>28.37213824816151</v>
+        <v>37.81528059155892</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>28.37213825924647</v>
+        <v>45.60420889649431</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>28.37213823562765</v>
+        <v>3.804969021648699</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>28.37213825955758</v>
+        <v>37.34965871537518</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>28.37213826656627</v>
+        <v>45.09208457381403</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>28.37213824328419</v>
+        <v>10.14904344325262</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>28.37213826973972</v>
+        <v>29.55607052946588</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>28.37213827748813</v>
+        <v>37.74957879026455</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>28.37213825274065</v>
+        <v>25.19720311723654</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>28.37213827589426</v>
+        <v>42.26938109700884</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>28.37213828267559</v>
+        <v>48.67665761568334</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>28.37213826993452</v>
+        <v>50.3460824306006</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>28.37213829558224</v>
+        <v>61.4255960132617</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>28.37213830293811</v>
+        <v>67.62655386356106</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.37213826198475</v>
+        <v>27.53074857375117</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>28.37213829840064</v>
+        <v>53.60970442841309</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>28.37213830906628</v>
+        <v>62.71054824552528</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>28.37213823393085</v>
+        <v>36.63966755697946</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>28.37213822123816</v>
+        <v>35.74219042985752</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>28.37213824764821</v>
+        <v>46.14428542901424</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>28.37213825529152</v>
+        <v>51.70694828801243</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>28.37213821460076</v>
+        <v>15.36699351676781</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>28.37213825205225</v>
+        <v>40.33447338811848</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>28.37213826304419</v>
+        <v>48.20207604786953</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>28.37213823921672</v>
+        <v>5.394881201608275</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>28.37213826304661</v>
+        <v>39.29407326178647</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>28.37213826999447</v>
+        <v>47.08797131139097</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>28.37213824717015</v>
+        <v>12.78159638834505</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>28.37213827351508</v>
+        <v>32.60531677765015</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>28.37213828119624</v>
+        <v>40.8448345105144</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>28.37213825661323</v>
+        <v>27.86812237208161</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>28.37213827967005</v>
+        <v>45.31195379738362</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>28.37213828639252</v>
+        <v>51.76558496922277</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>28.37213827367386</v>
+        <v>53.69644846406742</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>28.37213829919488</v>
+        <v>64.79366417295515</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>28.37213830649103</v>
+        <v>71.07253148432139</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>28.37213826562489</v>
+        <v>30.66872197649048</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>28.37213830188854</v>
+        <v>57.22355500445325</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>28.3721383124616</v>
+        <v>66.37914308976761</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>28.3721382121536</v>
+        <v>28.24378772206038</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>28.3721381994732</v>
+        <v>25.17888314989996</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>28.37213822590511</v>
+        <v>35.3742337857335</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>28.37213823372701</v>
+        <v>41.23006001583937</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>28.37213819350266</v>
+        <v>5.69288300786382</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>28.37213823087576</v>
+        <v>29.38389994136627</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>28.37213824214017</v>
+        <v>37.79516607733684</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>28.37213821993976</v>
+        <v>-0.8086983931904506</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>28.37213824372222</v>
+        <v>31.95736271636555</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>28.37213825084681</v>
+        <v>40.22799098887133</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>28.37213822653051</v>
+        <v>4.546481949410001</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>28.37213825282301</v>
+        <v>23.32385855398318</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>28.37213826069955</v>
+        <v>32.07106040954629</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>28.37213823575971</v>
+        <v>18.83767366021836</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>28.37213825877065</v>
+        <v>35.34245496134845</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>28.37213826566411</v>
+        <v>42.24585473703119</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>28.37213825296108</v>
+        <v>41.94387354373534</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>28.37213827850557</v>
+        <v>52.86535457050945</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>28.37213828597838</v>
+        <v>59.44105273384274</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>28.37213824553756</v>
+        <v>19.73584895590755</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>28.37213828172905</v>
+        <v>45.05752338210451</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>28.37213829257105</v>
+        <v>54.79681219247881</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>28.37213811294282</v>
+        <v>-5.898749488639154</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>28.3721381346203</v>
+        <v>19.92503318256946</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>28.37213814116344</v>
+        <v>25.145738355462</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>28.37213811477349</v>
+        <v>-0.3799715766449268</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>28.37213813873884</v>
+        <v>11.65833883047822</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>28.37213814597255</v>
+        <v>17.35856357650366</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>28.37213812149807</v>
+        <v>7.781675837099606</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>28.37213814247231</v>
+        <v>18.71963966157971</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>28.37213814880317</v>
+        <v>23.13579591647082</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>28.37213813853376</v>
+        <v>20.28678693912617</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>28.37213816180885</v>
+        <v>27.40530510974393</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>28.37213816871872</v>
+        <v>31.40581420910722</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>28.37213813507742</v>
+        <v>3.164121458303693</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>28.3721381680656</v>
+        <v>20.3283147353594</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>28.37213817802276</v>
+        <v>26.69652094466134</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>28.37213815277904</v>
+        <v>-9.443138697227305</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>28.37213817595131</v>
+        <v>20.39325234984219</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>28.37213818295492</v>
+        <v>27.07465129979738</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>28.37213815577613</v>
+        <v>-7.531640791404634</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>28.37213818139404</v>
+        <v>8.434079976053539</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>28.37213818913682</v>
+        <v>15.30930056401512</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>28.37213816380391</v>
+        <v>3.899686762062458</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>28.37213818622445</v>
+        <v>17.93206057538299</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>28.37213813185201</v>
+        <v>0.3216277012700814</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>28.37213815394071</v>
+        <v>28.20131436905254</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>28.37213816041608</v>
+        <v>33.29067374525588</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>28.37213813515894</v>
+        <v>8.769615629072057</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>28.37213815957891</v>
+        <v>22.61745334405796</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>28.37213816673771</v>
+        <v>28.14377597081898</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>28.37213814223074</v>
+        <v>17.67759240620206</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>28.37213816360285</v>
+        <v>30.23634220109557</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>28.37213816986815</v>
+        <v>34.49522782111143</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>28.37213815941131</v>
+        <v>33.55106029893334</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>28.37213818305445</v>
+        <v>41.13114041136478</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>28.37213818990528</v>
+        <v>45.12814152084147</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>28.37213815522087</v>
+        <v>15.00889011187627</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>28.37213818883483</v>
+        <v>34.34840726479186</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>28.37213819868887</v>
+        <v>40.51534665596805</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>28.37213817327719</v>
+        <v>-0.3963817644208412</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>28.37213819688584</v>
+        <v>31.68837384841168</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>28.37213820381949</v>
+        <v>38.26265443253268</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>28.37213817786267</v>
+        <v>4.915148850524062</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>28.372138203963</v>
+        <v>22.86620629323069</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>28.37213821162844</v>
+        <v>29.58612649684749</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>28.37213818625895</v>
+        <v>17.2722255984213</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>28.3721382091017</v>
+        <v>33.07938425912378</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>28.37213813577622</v>
+        <v>0.1486325013275795</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>28.37213815777159</v>
+        <v>28.35901250610079</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>28.37213816419185</v>
+        <v>33.51554651747915</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>28.37213813938477</v>
+        <v>9.421343787034663</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>28.37213816370156</v>
+        <v>23.66406285414478</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>28.37213817079943</v>
+        <v>29.25180235482089</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>28.37213814645594</v>
+        <v>18.33756177660712</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>28.37213816773775</v>
+        <v>31.24561098247096</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>28.37213817394974</v>
+        <v>35.56249658115633</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>28.37213816351228</v>
+        <v>34.89042100267791</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>28.37213818703819</v>
+        <v>42.52441166700879</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>28.37213819383559</v>
+        <v>46.59990028388634</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>28.3721381592108</v>
+        <v>16.14236695327123</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>28.37213819268273</v>
+        <v>35.93620508970803</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>28.3721382024529</v>
+        <v>42.17252304423559</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>28.3721381771424</v>
+        <v>-0.02153488240827528</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>28.37213820065073</v>
+        <v>32.41420490313008</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>28.37213820752577</v>
+        <v>39.06208143590794</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>28.37213818203842</v>
+        <v>6.234791077866682</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>28.37213820802786</v>
+        <v>24.59947795419946</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>28.3721382156285</v>
+        <v>31.38795284618824</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>28.37213819042723</v>
+        <v>18.61036307116802</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>28.37213821317293</v>
+        <v>34.78589087556232</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>28.37213811736768</v>
+        <v>-3.031404215549873</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>28.37213813931039</v>
+        <v>24.0961692801979</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>28.37213814589312</v>
+        <v>29.65972878598322</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>28.37213811969699</v>
+        <v>4.73108240436768</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>28.37213814395557</v>
+        <v>17.95696704165578</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>28.37213815123305</v>
+        <v>23.99137590095249</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>28.37213812655007</v>
+        <v>13.01738460421028</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>28.37213814778093</v>
+        <v>25.01522324758616</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>28.37213815415011</v>
+        <v>29.72520014392277</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>28.3721381437203</v>
+        <v>27.12537684730696</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>28.37213816725532</v>
+        <v>34.51736386570575</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>28.37213817421343</v>
+        <v>38.83962976116079</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>28.37213814002887</v>
+        <v>9.188418875176179</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>28.37213817342067</v>
+        <v>27.78379389641916</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>28.37213818343808</v>
+        <v>34.53370856690843</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>28.37213815789514</v>
+        <v>-4.914742398434498</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>28.37213818135025</v>
+        <v>26.36893938476985</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>28.37213818839684</v>
+        <v>33.44949638544616</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>28.37213816142903</v>
+        <v>-0.5042941270966637</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>28.37213818735963</v>
+        <v>16.78528295077709</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>28.37213819514992</v>
+        <v>24.04787562980854</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>28.37213816959968</v>
+        <v>11.12195170926639</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>28.37213819229388</v>
+        <v>26.33442318739876</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>28.37213819300085</v>
+        <v>23.33994281107815</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>28.37213818131584</v>
+        <v>20.2320073225621</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>28.37213820625662</v>
+        <v>30.0668414986939</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>28.37213821364442</v>
+        <v>35.25376285078896</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>28.37213817623256</v>
+        <v>1.451365084059763</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>28.37213821149547</v>
+        <v>23.44138517170675</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>28.37213822215337</v>
+        <v>31.10167075461332</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>28.37213820293843</v>
+        <v>-4.991037572547846</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>28.37213822537374</v>
+        <v>25.86740852606878</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>28.37213823213138</v>
+        <v>33.56696902563509</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>28.37213820793504</v>
+        <v>-2.412668832677539</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>28.37213823273821</v>
+        <v>14.90736921370587</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>28.37213824020906</v>
+        <v>23.07060955314322</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>28.37213821650915</v>
+        <v>11.31737361389177</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>28.37213823821663</v>
+        <v>26.52250167331811</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>28.37213824475504</v>
+        <v>32.93848188713</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>28.3721382330529</v>
+        <v>32.37535553191049</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>28.37213825715153</v>
+        <v>42.9309877121858</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>28.37213826422737</v>
+        <v>48.89330864028896</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>28.37213822656712</v>
+        <v>11.0797097678983</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>28.37213826070854</v>
+        <v>34.60148180526889</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>28.37213827099213</v>
+        <v>43.66788357808991</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>28.37213821581042</v>
+        <v>38.34647772640362</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>28.37213820389698</v>
+        <v>37.224255791814</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>28.37213822922498</v>
+        <v>47.51397163156616</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>28.37213823655121</v>
+        <v>52.70328565540715</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>28.37213819802383</v>
+        <v>16.94966263333011</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>28.37213823395079</v>
+        <v>41.32647206346402</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>28.37213824450223</v>
+        <v>48.80526561340243</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>28.37213822328898</v>
+        <v>6.747690369815039</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>28.37213824614538</v>
+        <v>39.83847678263406</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>28.37213825283041</v>
+        <v>47.37801265928925</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>28.37213822984556</v>
+        <v>12.99852117283161</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>28.37213825511426</v>
+        <v>32.28584900058258</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>28.37213826250484</v>
+        <v>40.25480696434888</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>28.37213823877813</v>
+        <v>27.74273955985678</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>28.37213826089305</v>
+        <v>44.70842430461724</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>28.3721382673612</v>
+        <v>50.947068725911</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>28.37213825542729</v>
+        <v>52.49787041723505</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>28.37213827989873</v>
+        <v>63.47943431158316</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>28.37213828690857</v>
+        <v>69.4386922186775</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>28.37213824816948</v>
+        <v>29.69193153455108</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>28.3721382829517</v>
+        <v>55.57255306137191</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>28.3721382931248</v>
+        <v>64.41658568724961</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>28.37213821982493</v>
+        <v>40.11776398899347</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>28.37213820793249</v>
+        <v>39.24273936499214</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>28.3721382331337</v>
+        <v>49.55984139621209</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>28.37213824040284</v>
+        <v>54.8371096777859</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>28.37213820195174</v>
+        <v>18.7773361993411</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>28.37213823772606</v>
+        <v>43.62976764665277</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>28.3721382481883</v>
+        <v>51.18623445261768</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>28.37213822677244</v>
+        <v>8.14472720674738</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>28.37213824953353</v>
+        <v>41.57735330043679</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>28.37213825616008</v>
+        <v>49.16781662831053</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>28.37213823361748</v>
+        <v>15.41589738550669</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>28.37213825878081</v>
+        <v>35.10567315382339</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>28.37213826610673</v>
+        <v>43.12028441556765</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>28.37213824253734</v>
+        <v>30.19309165437361</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>28.37213826456004</v>
+        <v>47.51783954670776</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>28.37213827097161</v>
+        <v>53.80256085886028</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>28.37213825905714</v>
+        <v>55.61756030390616</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>28.37213828340801</v>
+        <v>66.61380822410297</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>28.37213829036054</v>
+        <v>72.64964612041292</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>28.37213825170303</v>
+        <v>32.61292806628599</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>28.37213828634022</v>
+        <v>58.95324035158856</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>28.37213829642431</v>
+        <v>67.85152870308548</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>28.37213819911187</v>
+        <v>32.0837483217347</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>28.37213818724216</v>
+        <v>29.08285239675148</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>28.37213821245958</v>
+        <v>39.1904168913269</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>28.37213821989911</v>
+        <v>44.7596579431923</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>28.3721381818977</v>
+        <v>9.490797809499625</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>28.37213821759102</v>
+        <v>33.07546416213077</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>28.37213822831432</v>
+        <v>41.17782741485591</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>28.37213820843323</v>
+        <v>2.272131499043684</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>28.37213823114481</v>
+        <v>34.58212546013127</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>28.37213823794121</v>
+        <v>42.65103716016459</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>28.37213821397173</v>
+        <v>7.537564799728983</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>28.37213823908031</v>
+        <v>26.18868025581169</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>28.37213824659402</v>
+        <v>34.71254558966631</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>28.37213822269154</v>
+        <v>21.54773547309733</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>28.37213824466632</v>
+        <v>37.94022970459178</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>28.37213825124224</v>
+        <v>44.67606286324681</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>28.37213823935273</v>
+        <v>44.29782216941472</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>28.37213826372117</v>
+        <v>55.11528786859685</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>28.37213827084286</v>
+        <v>61.44710565424804</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>28.37213823259602</v>
+        <v>22.09909974876265</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>28.37213826715785</v>
+        <v>47.21513668832763</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>28.37213827750043</v>
+        <v>56.69854227973046</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>28.37213811721402</v>
+        <v>-5.855362001235903</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>28.37213814030317</v>
+        <v>22.22822586914073</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>28.37213814727475</v>
+        <v>27.87074820340241</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>28.37213811969866</v>
+        <v>0.382442266653868</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>28.37213814522467</v>
+        <v>13.78854217162965</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>28.37213815293204</v>
+        <v>19.94254305584466</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>28.37213812697706</v>
+        <v>9.310467672111258</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>28.37213814931717</v>
+        <v>21.46661402028237</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>28.37213815606258</v>
+        <v>26.23730946704538</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>28.37213814487133</v>
+        <v>23.2355097022676</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>28.37213816967979</v>
+        <v>31.07759208882526</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>28.37213817704712</v>
+        <v>35.37793912713439</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>28.37213814082456</v>
+        <v>4.627482560411579</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>28.37213817596098</v>
+        <v>23.54712977198006</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>28.37213818657013</v>
+        <v>30.43838219684022</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>28.37213816031793</v>
+        <v>-7.589811316091286</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>28.37213818500116</v>
+        <v>24.8268298117783</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>28.3721381924605</v>
+        <v>31.91024598357495</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>28.37213816406669</v>
+        <v>-5.071330650206054</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>28.37213819135502</v>
+        <v>12.58209249921298</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>28.37213819960163</v>
+        <v>19.86772040965849</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>28.37213817273593</v>
+        <v>7.395959837455337</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>28.37213819661839</v>
+        <v>22.90437242664367</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>28.37213813753447</v>
+        <v>1.207939854997353</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>28.37213816106007</v>
+        <v>31.49776788157142</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>28.3721381679583</v>
+        <v>36.98972883242817</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>28.37213814159393</v>
+        <v>10.58305576825984</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>28.37213816760245</v>
+        <v>25.93500859496148</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>28.37213817522872</v>
+        <v>31.89179017056253</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>28.37213814924507</v>
+        <v>20.31857167057688</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>28.37213817200747</v>
+        <v>34.21709606171283</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>28.37213817868192</v>
+        <v>38.80969830479184</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>28.37213816729127</v>
+        <v>37.83701558219342</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>28.37213819248962</v>
+        <v>46.17130770190266</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>28.37213819979246</v>
+        <v>50.46411419930517</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>28.37213816245655</v>
+        <v>17.69420763163453</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>28.37213819825714</v>
+        <v>38.95016257942915</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>28.37213820875467</v>
+        <v>45.61406012383836</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>28.37213818232739</v>
+        <v>2.460117571017275</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>28.37213820747356</v>
+        <v>37.2858142870016</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>28.37213821485718</v>
+        <v>44.24299419798011</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>28.37213818777024</v>
+        <v>8.619680905695731</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>28.37213821557038</v>
+        <v>28.40347638174828</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>28.37213822373328</v>
+        <v>35.51061625212965</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>28.3721381968347</v>
+        <v>22.08413617155106</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>28.3721382211651</v>
+        <v>39.49668088326718</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>28.37213814165699</v>
+        <v>1.153354137561411</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>28.37213816508313</v>
+        <v>31.79785569234966</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>28.37213817192264</v>
+        <v>37.35651498888424</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>28.37213814603447</v>
+        <v>11.41036779668538</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>28.37213817193303</v>
+        <v>27.18614514450627</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>28.37213817949441</v>
+        <v>33.20310260421009</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>28.37213815368426</v>
+        <v>21.15615817385863</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>28.37213817635043</v>
+        <v>35.42951838732368</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>28.37213818296806</v>
+        <v>40.07933206867638</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>28.37213817159993</v>
+        <v>39.39472683978402</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>28.37213819667319</v>
+        <v>47.78641613778352</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>28.37213820391895</v>
+        <v>52.1603776415438</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>28.37213816664895</v>
+        <v>19.02685755245285</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>28.37213820229818</v>
+        <v>40.77017882641215</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>28.37213821270636</v>
+        <v>47.50211304817775</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>28.37213818638051</v>
+        <v>2.973977222166923</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>28.37213821141971</v>
+        <v>38.17530698540685</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>28.37213821874092</v>
+        <v>45.20634982350634</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>28.37213819215072</v>
+        <v>10.14321349704669</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>28.3721382198326</v>
+        <v>30.36991794691162</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>28.3721382279265</v>
+        <v>37.54528580783293</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>28.37213820120644</v>
+        <v>23.62794751872459</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>28.37213822543335</v>
+        <v>41.43491126800164</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>28.37213812203987</v>
+        <v>-2.437588858819009</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>28.37213814541131</v>
+        <v>27.05040482657277</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>28.37213815242513</v>
+        <v>33.04862528201924</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>28.37213812506084</v>
+        <v>6.205726676723884</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>28.37213815089893</v>
+        <v>20.89455173507005</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>28.37213815865299</v>
+        <v>27.39390797490859</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>28.37213813247737</v>
+        <v>15.27516661029975</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>28.37213815509062</v>
+        <v>28.57562140726225</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>28.3721381618769</v>
+        <v>33.65004357260842</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>28.3721381505129</v>
+        <v>30.912046838261</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>28.37213817559801</v>
+        <v>39.04982767071628</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>28.37213818301673</v>
+        <v>43.68884468435589</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>28.37213814621176</v>
+        <v>11.41530904935773</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>28.37213818177776</v>
+        <v>31.87852103707666</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>28.37213819245119</v>
+        <v>39.16495975636155</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>28.37213816588266</v>
+        <v>-2.401306806490354</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>28.37213819086683</v>
+        <v>31.57249003904522</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>28.37213819837201</v>
+        <v>39.07028174974563</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>28.37213817020848</v>
+        <v>2.796014712389763</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>28.37213819782953</v>
+        <v>21.87688494062495</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>28.37213820612681</v>
+        <v>29.56327941701172</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>28.37213817903107</v>
+        <v>15.47860592456425</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.37213820320473</v>
+        <v>32.25909174479428</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>28.37213820383574</v>
+        <v>28.62534095566645</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>28.37213819112429</v>
+        <v>25.45969123867869</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>28.37213821771249</v>
+        <v>36.2220541413071</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>28.37213822558615</v>
+        <v>41.72872409316771</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>28.37213818532434</v>
+        <v>5.08361377282441</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>28.37213822288657</v>
+        <v>29.21814783678596</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>28.37213823423798</v>
+        <v>37.34498613345401</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>28.37213821266849</v>
+        <v>-3.908313060747581</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>28.37213823656091</v>
+        <v>29.5360229902117</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>28.37213824375585</v>
+        <v>37.72857793303448</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>28.37213821847338</v>
+        <v>-0.629757539451397</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>28.37213824488744</v>
+        <v>18.4017709262279</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>28.37213825284175</v>
+        <v>27.08222132542146</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>28.37213822769983</v>
+        <v>14.21600829450973</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>28.37213825081715</v>
+        <v>30.91787503893359</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>28.37213825777868</v>
+        <v>37.73114758405507</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>28.37213824505767</v>
+        <v>37.34272564747205</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>28.37213827074451</v>
+        <v>48.86665629015484</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>28.37213827828322</v>
+        <v>55.19232385896902</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>28.37213823780294</v>
+        <v>14.33348857219027</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>28.37213827416175</v>
+        <v>40.03407697395862</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>28.37213828511081</v>
+        <v>49.68222471794175</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>28.37213822830919</v>
+        <v>45.05613438219541</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>28.37213821535456</v>
+        <v>44.00341356995619</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>28.37213824235278</v>
+        <v>55.24914314665067</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>28.37213825015917</v>
+        <v>60.75359245293144</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>28.37213820870758</v>
+        <v>22.0169538576139</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>28.37213824697432</v>
+        <v>48.70997063406492</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>28.3721382582105</v>
+        <v>56.62911081912765</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>28.37213823449545</v>
+        <v>8.96273668623699</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>28.37213825883448</v>
+        <v>44.79772760252035</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>28.3721382659512</v>
+        <v>52.80940346598374</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>28.37213824196226</v>
+        <v>16.16699706579427</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>28.37213826887006</v>
+        <v>37.30851888017885</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>28.37213827673789</v>
+        <v>45.77059118138282</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>28.37213825157258</v>
+        <v>32.10380963480523</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>28.37213827512202</v>
+        <v>50.69352547853855</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>28.37213828200787</v>
+        <v>57.30777714783298</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>28.3721382690394</v>
+        <v>59.16686010966003</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>28.37213829512095</v>
+        <v>71.14311880675407</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>28.37213830258807</v>
+        <v>77.46200443558361</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>28.37213826095752</v>
+        <v>34.53232059759019</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>28.37213829799596</v>
+        <v>62.76041491333753</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>28.37213830882599</v>
+        <v>72.15922783297187</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>28.37213823251704</v>
+        <v>47.0591925788874</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>28.37213821958674</v>
+        <v>46.2662065555564</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>28.37213824644955</v>
+        <v>57.54058843695634</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>28.37213825419501</v>
+        <v>63.13630205550005</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>28.37213821282743</v>
+        <v>24.07172045826947</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>28.37213825093139</v>
+        <v>51.27380114249186</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>28.37213826207259</v>
+        <v>59.27029972846749</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>28.37213823814547</v>
+        <v>10.56459728920611</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>28.3721382623828</v>
+        <v>46.76529053764668</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>28.37213826943733</v>
+        <v>54.82691311907628</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>28.37213824591635</v>
+        <v>18.85776724478179</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>28.37213827271173</v>
+        <v>40.43015545074714</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>28.37213828051079</v>
+        <v>48.93630942881599</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>28.37213825551241</v>
+        <v>34.83062137387606</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>28.37213827896346</v>
+        <v>53.80470449443669</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>28.37213828578912</v>
+        <v>60.46408229061115</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>28.37213827284321</v>
+        <v>62.60020879198795</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>28.37213829879592</v>
+        <v>74.59145262990288</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>28.37213830620195</v>
+        <v>80.98998222798843</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>28.37213826466091</v>
+        <v>37.74979803381552</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>28.3721383015446</v>
+        <v>66.46979758592711</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>28.37213831227998</v>
+        <v>75.92130799810047</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>28.37213821046642</v>
+        <v>38.33341821131272</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>28.37213819755628</v>
+        <v>35.27870845955793</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>28.37213822443884</v>
+        <v>46.33536692790746</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>28.37213823236759</v>
+        <v>52.24438870872054</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>28.3721381914742</v>
+        <v>14.01939761801798</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>28.37213822949442</v>
+        <v>39.87115244422791</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>28.37213824091558</v>
+        <v>48.45598198008418</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>28.37213821862129</v>
+        <v>4.165942610325004</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>28.37213824280752</v>
+        <v>39.17010829990414</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>28.37213825004387</v>
+        <v>47.74632689326783</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>28.37213822500761</v>
+        <v>10.32184965011412</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>28.3721382517465</v>
+        <v>30.78669780064395</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>28.37213825974658</v>
+        <v>39.84052265303621</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>28.37213823439004</v>
+        <v>25.47264093690146</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>28.37213825779165</v>
+        <v>43.45272181818977</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>28.37213826479324</v>
+        <v>50.59725642852016</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>28.37213825187063</v>
+        <v>50.40224431309006</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>28.37213827784445</v>
+        <v>62.20829077310821</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>28.37213828543207</v>
+        <v>68.92371448793334</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>28.37213824432396</v>
+        <v>26.41451111009023</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>28.37213828112989</v>
+        <v>53.82992061284961</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>28.37213829214195</v>
+        <v>63.91048824362778</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>28.37213812290574</v>
+        <v>-3.077681131242091</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>28.37213814587848</v>
+        <v>23.5740264744249</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>28.37213815291131</v>
+        <v>29.41022076842838</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>28.37213812597984</v>
+        <v>3.091314886098083</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>28.37213815137716</v>
+        <v>15.38028722563761</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>28.37213815915225</v>
+        <v>21.72661845271673</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>28.37213813326803</v>
+        <v>11.62420275902798</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>28.37213815549551</v>
+        <v>22.7777582284469</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>28.37213816230019</v>
+        <v>27.73216764373279</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>28.37213815114383</v>
+        <v>24.56388358824319</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>28.37213817587448</v>
+        <v>31.92917912911633</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>28.37213818332018</v>
+        <v>36.39807496922853</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>28.3721381470691</v>
+        <v>7.170924518508503</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>28.37213818202837</v>
+        <v>24.70829241015495</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>28.37213819273074</v>
+        <v>31.83757797094773</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>28.37213816642554</v>
+        <v>-6.200161076663367</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>28.37213819099016</v>
+        <v>24.64422381033883</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>28.37213819851043</v>
+        <v>31.9043209908375</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>28.37213817077889</v>
+        <v>-3.703750838945432</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>28.3721381979361</v>
+        <v>12.70394950358821</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>28.37213820625008</v>
+        <v>20.17212197095053</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>28.37213817944479</v>
+        <v>8.123594594271246</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>28.3721382032125</v>
+        <v>22.52407023653244</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>28.372138143626</v>
+        <v>4.231564871901142</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>28.37213816703172</v>
+        <v>33.02716694210696</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>28.37213817399307</v>
+        <v>38.73267797402766</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>28.3721381482932</v>
+        <v>13.4490312332377</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>28.37213817416919</v>
+        <v>27.6272475673046</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>28.37213818186526</v>
+        <v>33.7960808205024</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>28.3721381559663</v>
+        <v>22.79139507304889</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>28.3721381786127</v>
+        <v>35.63578243562608</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>28.37213818534822</v>
+        <v>40.42965560672716</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>28.37213817400346</v>
+        <v>39.23682931301754</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>28.37213819912007</v>
+        <v>47.07902555800441</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>28.37213820650226</v>
+        <v>51.5505182121469</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>28.3721381691316</v>
+        <v>20.34466592143287</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>28.37213820474976</v>
+        <v>40.14951202895483</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>28.37213821534335</v>
+        <v>47.07466184691503</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>28.37213818884203</v>
+        <v>3.98826492583866</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>28.3721382138657</v>
+        <v>37.17302077995335</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>28.37213822131253</v>
+        <v>44.33022513348941</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>28.3721381949078</v>
+        <v>10.02934279226089</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>28.37213822257251</v>
+        <v>28.50477965574827</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>28.37213823080528</v>
+        <v>35.81804296837713</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>28.37213820398127</v>
+        <v>22.84838079585702</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>28.37213822819314</v>
+        <v>39.09609723685455</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>28.37213814777304</v>
+        <v>4.301977318620267</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>28.37213817108035</v>
+        <v>33.45273991049552</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>28.37213817798315</v>
+        <v>39.22391375561268</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>28.37213815275692</v>
+        <v>14.37682999962039</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>28.37213817852412</v>
+        <v>28.97817870341404</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>28.37213818615546</v>
+        <v>35.20577233825926</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>28.37213816043074</v>
+        <v>23.73667054596245</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>28.37213818298194</v>
+        <v>36.95505459140186</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>28.37213818966081</v>
+        <v>41.8047483016028</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>28.37213817833833</v>
+        <v>40.88600580228785</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>28.37213820333064</v>
+        <v>48.78790013588748</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>28.37213821065568</v>
+        <v>53.33906265032157</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>28.37213817334838</v>
+        <v>21.76478628108933</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>28.37213820881679</v>
+        <v>42.05591672637595</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>28.37213821932128</v>
+        <v>49.04766728968552</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>28.37213819291661</v>
+        <v>4.619677065991997</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>28.37213821783431</v>
+        <v>38.18067859794139</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>28.37213822521898</v>
+        <v>45.41090371864117</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>28.37213819930829</v>
+        <v>11.64480319703616</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>28.37213822685584</v>
+        <v>30.56238343184188</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>28.37213823501989</v>
+        <v>37.9427164278671</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>28.37213820837523</v>
+        <v>24.49179414542764</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>28.37213823248457</v>
+        <v>41.13299104127857</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>28.37213812787436</v>
+        <v>0.6042421798318678</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>28.37213815112856</v>
+        <v>28.6324229766802</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>28.37213815820521</v>
+        <v>34.82202086598489</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>28.37213813149389</v>
+        <v>9.123996170705354</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>28.37213815720238</v>
+        <v>22.67128654133053</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>28.3721381650259</v>
+        <v>29.3598093102009</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>28.37213813892361</v>
+        <v>17.80775278362938</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>28.37213816142342</v>
+        <v>30.0830928778243</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>28.37213816827049</v>
+        <v>35.33833436429732</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>28.37213815694198</v>
+        <v>32.4115776318418</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>28.37213818194873</v>
+        <v>40.06740429098943</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>28.3721381894475</v>
+        <v>44.87318986673328</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>28.37213815260974</v>
+        <v>14.14311823248253</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>28.37213818799733</v>
+        <v>33.19314323338051</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>28.37213819876637</v>
+        <v>40.71468853740071</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>28.37213817213682</v>
+        <v>-0.7857376886563507</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>28.37213819700144</v>
+        <v>31.58583970167868</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>28.37213820456927</v>
+        <v>39.25773039833233</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>28.37213817707645</v>
+        <v>4.33080799372965</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>28.37213820456531</v>
+        <v>22.13940588176004</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>28.37213821293186</v>
+        <v>30.0050322354762</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>28.37213818589903</v>
+        <v>16.38107724004651</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>28.37213820995701</v>
+        <v>32.02922723130883</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>28.37213821048882</v>
+        <v>28.42104565447136</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>28.37213819779091</v>
+        <v>25.0866027393259</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>28.37213822430209</v>
+        <v>35.29209839893171</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>28.37213823225492</v>
+        <v>40.98425040583662</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>28.3721381919475</v>
+        <v>5.977977035663308</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.37213822932925</v>
+        <v>28.58101445231785</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>28.37213824077339</v>
+        <v>36.92875501153218</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>28.37213821843871</v>
+        <v>-2.063119693053064</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>28.37213824221955</v>
+        <v>29.84676321233234</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>28.37213824945798</v>
+        <v>38.14208481579775</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>28.37213822478715</v>
+        <v>1.309825387778972</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>28.37213825107785</v>
+        <v>19.12286276689194</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>28.37213825908023</v>
+        <v>27.88831051959174</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>28.37213823399657</v>
+        <v>15.46168103780061</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>28.37213825700592</v>
+        <v>31.07996145298866</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>28.37213826400953</v>
+        <v>37.99013398138959</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>28.37213825127862</v>
+        <v>37.46950192346577</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>28.37213827689307</v>
+        <v>48.41920434014514</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>28.37213828449173</v>
+        <v>54.86838040707809</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>28.37213824397444</v>
+        <v>15.71900680658431</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>28.37213828016344</v>
+        <v>39.91827031734169</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>28.37213829117868</v>
+        <v>49.68693861748808</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>28.37213823539838</v>
+        <v>44.85256047194439</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>28.37213822246803</v>
+        <v>43.56481487641116</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>28.37213824938489</v>
+        <v>54.23922284081529</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>28.37213825727175</v>
+        <v>59.94044291091452</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>28.37213821576882</v>
+        <v>22.88543193638643</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>28.37213825384913</v>
+        <v>47.97096585809452</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>28.3721382651815</v>
+        <v>56.13838588346931</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>28.37213824064538</v>
+        <v>10.92147892327547</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>28.37213826486868</v>
+        <v>45.15332373665227</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>28.37213827203145</v>
+        <v>53.292457060836</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>28.37213824867125</v>
+        <v>18.11276559503268</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>28.37213827545112</v>
+        <v>37.97352599411401</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>28.37213828336986</v>
+        <v>46.54507556999636</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>28.37213825827576</v>
+        <v>33.35130354285124</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>28.37213828171324</v>
+        <v>50.80077642004721</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>28.37213828864364</v>
+        <v>57.5337861996973</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>28.3721382756746</v>
+        <v>59.18962484713445</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>28.37213830167921</v>
+        <v>70.57732417468721</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>28.37213830920796</v>
+        <v>77.03155940290029</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>28.37213826753539</v>
+        <v>35.85249889776928</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>28.37213830439773</v>
+        <v>62.50377071795047</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>28.37213831529783</v>
+        <v>72.0515328630342</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>28.37213823962967</v>
+        <v>46.95308779057032</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>28.37213822672356</v>
+        <v>45.90925733385835</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>28.37213825350572</v>
+        <v>56.6158746983695</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>28.37213826133165</v>
+        <v>62.40653121281649</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>28.37213821991045</v>
+        <v>25.01780613305823</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>28.3721382578295</v>
+        <v>50.61126504621026</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>28.37213826906727</v>
+        <v>58.85486033829293</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>28.37213824431446</v>
+        <v>12.61892000554284</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>28.3721382684369</v>
+        <v>47.2164875967855</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>28.37213827553789</v>
+        <v>55.40535067681194</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>28.37213825264307</v>
+        <v>20.86954379126753</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>28.37213827931144</v>
+        <v>41.15996943919752</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>28.37213828716187</v>
+        <v>49.77521194479435</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>28.3721382622354</v>
+        <v>36.15195489095641</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>28.37213828557529</v>
+        <v>53.98446081384718</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>28.37213829244591</v>
+        <v>60.76200262946566</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>28.37213827949947</v>
+        <v>62.67766760083077</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>28.37213830537581</v>
+        <v>74.08400975861437</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>28.37213831284366</v>
+        <v>80.6166693815932</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>28.3721382712585</v>
+        <v>39.12091133487368</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>28.37213830796736</v>
+        <v>66.26251651676749</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>28.37213831877344</v>
+        <v>75.86253094405046</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>28.37213821727933</v>
+        <v>38.27647705762016</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>28.37213820438309</v>
+        <v>35.02824122130988</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>28.37213823118798</v>
+        <v>45.5241851304517</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>28.37213823919771</v>
+        <v>51.61628939301973</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>28.37213819825449</v>
+        <v>15.04998005672516</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>28.37213823609276</v>
+        <v>39.33685234063666</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>28.37213824760927</v>
+        <v>48.13935054483359</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>28.37213822452861</v>
+        <v>6.174947555216942</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>28.37213824860219</v>
+        <v>39.61348167729619</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>28.37213825588366</v>
+        <v>48.29007163699222</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>28.37213823146669</v>
+        <v>12.35842332989789</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>28.37213825808104</v>
+        <v>31.57711618043128</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>28.372138266131</v>
+        <v>40.71282123648122</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>28.37213824083497</v>
+        <v>26.82143402238089</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>28.37213826412759</v>
+        <v>43.69257355994883</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>28.37213827117283</v>
+        <v>50.9309575194621</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>28.37213825824037</v>
+        <v>50.57660754294785</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>28.37213828414104</v>
+        <v>61.8044011847506</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>28.3721382917903</v>
+        <v>68.64130371265318</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>28.37213825064139</v>
+        <v>27.8627741787307</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>28.3721382872759</v>
+        <v>53.74240994481568</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>28.37213829835662</v>
+        <v>63.94027800855604</v>
       </c>
     </row>
   </sheetData>
